--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6477,28 +6477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2134.408038540964</v>
+        <v>2324.08619698644</v>
       </c>
       <c r="AB2" t="n">
-        <v>2920.391241768684</v>
+        <v>3179.917266163733</v>
       </c>
       <c r="AC2" t="n">
-        <v>2641.673200449132</v>
+        <v>2876.430425322861</v>
       </c>
       <c r="AD2" t="n">
-        <v>2134408.038540964</v>
+        <v>2324086.19698644</v>
       </c>
       <c r="AE2" t="n">
-        <v>2920391.241768684</v>
+        <v>3179917.266163733</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.18399110184661e-07</v>
+        <v>1.035690432359612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.30324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2641673.200449132</v>
+        <v>2876430.42532286</v>
       </c>
     </row>
     <row r="3">
@@ -6583,28 +6583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1269.296671275217</v>
+        <v>1407.25987429381</v>
       </c>
       <c r="AB3" t="n">
-        <v>1736.707703055789</v>
+        <v>1925.47504393278</v>
       </c>
       <c r="AC3" t="n">
-        <v>1570.958757360714</v>
+        <v>1741.710408161033</v>
       </c>
       <c r="AD3" t="n">
-        <v>1269296.671275217</v>
+        <v>1407259.87429381</v>
       </c>
       <c r="AE3" t="n">
-        <v>1736707.703055789</v>
+        <v>1925475.04393278</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.017543881850121e-06</v>
+        <v>1.466956804369288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.86689814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1570958.757360714</v>
+        <v>1741710.408161032</v>
       </c>
     </row>
     <row r="4">
@@ -6689,28 +6689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1085.087394576044</v>
+        <v>1205.869202858242</v>
       </c>
       <c r="AB4" t="n">
-        <v>1484.66444393625</v>
+        <v>1649.923442545266</v>
       </c>
       <c r="AC4" t="n">
-        <v>1342.970153146608</v>
+        <v>1492.45706487084</v>
       </c>
       <c r="AD4" t="n">
-        <v>1085087.394576044</v>
+        <v>1205869.202858242</v>
       </c>
       <c r="AE4" t="n">
-        <v>1484664.44393625</v>
+        <v>1649923.442545266</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134817455433157e-06</v>
+        <v>1.63602594213221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.78240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1342970.153146608</v>
+        <v>1492457.06487084</v>
       </c>
     </row>
     <row r="5">
@@ -6795,28 +6795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1004.166156771097</v>
+        <v>1116.22934591179</v>
       </c>
       <c r="AB5" t="n">
-        <v>1373.944436378466</v>
+        <v>1527.274235639746</v>
       </c>
       <c r="AC5" t="n">
-        <v>1242.817107713633</v>
+        <v>1381.513326133141</v>
       </c>
       <c r="AD5" t="n">
-        <v>1004166.156771097</v>
+        <v>1116229.34591179</v>
       </c>
       <c r="AE5" t="n">
-        <v>1373944.436378466</v>
+        <v>1527274.235639746</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199677671902055e-06</v>
+        <v>1.729532608113943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.33564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1242817.107713633</v>
+        <v>1381513.326133141</v>
       </c>
     </row>
     <row r="6">
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>954.6628119557987</v>
+        <v>1066.811252442512</v>
       </c>
       <c r="AB6" t="n">
-        <v>1306.211776068736</v>
+        <v>1459.658219982666</v>
       </c>
       <c r="AC6" t="n">
-        <v>1181.548757440477</v>
+        <v>1320.350488110698</v>
       </c>
       <c r="AD6" t="n">
-        <v>954662.8119557987</v>
+        <v>1066811.252442512</v>
       </c>
       <c r="AE6" t="n">
-        <v>1306211.776068736</v>
+        <v>1459658.219982665</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.239801724843139e-06</v>
+        <v>1.787378027393331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1181548.757440477</v>
+        <v>1320350.488110698</v>
       </c>
     </row>
     <row r="7">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>919.2190881665554</v>
+        <v>1031.282187798698</v>
       </c>
       <c r="AB7" t="n">
-        <v>1257.716109513558</v>
+        <v>1411.04578630529</v>
       </c>
       <c r="AC7" t="n">
-        <v>1137.68144923723</v>
+        <v>1276.377556875512</v>
       </c>
       <c r="AD7" t="n">
-        <v>919219.0881665554</v>
+        <v>1031282.187798698</v>
       </c>
       <c r="AE7" t="n">
-        <v>1257716.109513558</v>
+        <v>1411045.78630529</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.266691142520933e-06</v>
+        <v>1.82614354397847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.99305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1137681.44923723</v>
+        <v>1276377.556875512</v>
       </c>
     </row>
     <row r="8">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>898.0017560147556</v>
+        <v>1001.602169560558</v>
       </c>
       <c r="AB8" t="n">
-        <v>1228.685619620834</v>
+        <v>1370.436275961875</v>
       </c>
       <c r="AC8" t="n">
-        <v>1111.421588555319</v>
+        <v>1239.643761203466</v>
       </c>
       <c r="AD8" t="n">
-        <v>898001.7560147557</v>
+        <v>1001602.169560558</v>
       </c>
       <c r="AE8" t="n">
-        <v>1228685.619620834</v>
+        <v>1370436.275961875</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.288223684020729e-06</v>
+        <v>1.857186242806414e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1111421.588555319</v>
+        <v>1239643.761203466</v>
       </c>
     </row>
     <row r="9">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>882.965426949319</v>
+        <v>986.3952482945289</v>
       </c>
       <c r="AB9" t="n">
-        <v>1208.112250837483</v>
+        <v>1349.629495403676</v>
       </c>
       <c r="AC9" t="n">
-        <v>1092.811713213746</v>
+        <v>1220.822750579242</v>
       </c>
       <c r="AD9" t="n">
-        <v>882965.426949319</v>
+        <v>986395.2482945289</v>
       </c>
       <c r="AE9" t="n">
-        <v>1208112.250837483</v>
+        <v>1349629.495403676</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.303086389494978e-06</v>
+        <v>1.878613276387653e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.32175925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>1092811.713213746</v>
+        <v>1220822.750579242</v>
       </c>
     </row>
     <row r="10">
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>871.6458632640466</v>
+        <v>975.0756846092563</v>
       </c>
       <c r="AB10" t="n">
-        <v>1192.624324419388</v>
+        <v>1334.141568985581</v>
       </c>
       <c r="AC10" t="n">
-        <v>1078.801932755553</v>
+        <v>1206.812970121049</v>
       </c>
       <c r="AD10" t="n">
-        <v>871645.8632640466</v>
+        <v>975075.6846092563</v>
       </c>
       <c r="AE10" t="n">
-        <v>1192624.324419388</v>
+        <v>1334141.568985581</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.314115252214386e-06</v>
+        <v>1.894513195299526e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.13078703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1078801.932755553</v>
+        <v>1206812.970121049</v>
       </c>
     </row>
     <row r="11">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>852.6068027651353</v>
+        <v>956.1218754563655</v>
       </c>
       <c r="AB11" t="n">
-        <v>1166.574241900709</v>
+        <v>1308.208131119551</v>
       </c>
       <c r="AC11" t="n">
-        <v>1055.238033550936</v>
+        <v>1183.354583167144</v>
       </c>
       <c r="AD11" t="n">
-        <v>852606.8027651353</v>
+        <v>956121.8754563655</v>
       </c>
       <c r="AE11" t="n">
-        <v>1166574.241900709</v>
+        <v>1308208.131119551</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.323043379177717e-06</v>
+        <v>1.907384558228186e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.97453703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>1055238.033550936</v>
+        <v>1183354.583167144</v>
       </c>
     </row>
     <row r="12">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>842.6625318517471</v>
+        <v>946.1776045429772</v>
       </c>
       <c r="AB12" t="n">
-        <v>1152.968051726741</v>
+        <v>1294.601940945583</v>
       </c>
       <c r="AC12" t="n">
-        <v>1042.930399070764</v>
+        <v>1171.046948686972</v>
       </c>
       <c r="AD12" t="n">
-        <v>842662.5318517471</v>
+        <v>946177.6045429772</v>
       </c>
       <c r="AE12" t="n">
-        <v>1152968.051726741</v>
+        <v>1294601.940945583</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.331813950959341e-06</v>
+        <v>1.920028779458104e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.81828703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>1042930.399070764</v>
+        <v>1171046.948686972</v>
       </c>
     </row>
     <row r="13">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>836.1585558519228</v>
+        <v>939.673628543153</v>
       </c>
       <c r="AB13" t="n">
-        <v>1144.069024828611</v>
+        <v>1285.702914047453</v>
       </c>
       <c r="AC13" t="n">
-        <v>1034.880682809929</v>
+        <v>1162.997232426137</v>
       </c>
       <c r="AD13" t="n">
-        <v>836158.5558519227</v>
+        <v>939673.6285431529</v>
       </c>
       <c r="AE13" t="n">
-        <v>1144069.024828611</v>
+        <v>1285702.914047453</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.336540606410516e-06</v>
+        <v>1.926843030420336e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.73726851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>1034880.682809929</v>
+        <v>1162997.232426137</v>
       </c>
     </row>
     <row r="14">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>827.2155130899271</v>
+        <v>930.7305857811573</v>
       </c>
       <c r="AB14" t="n">
-        <v>1131.832759182447</v>
+        <v>1273.466648401289</v>
       </c>
       <c r="AC14" t="n">
-        <v>1023.812229183328</v>
+        <v>1151.928778799536</v>
       </c>
       <c r="AD14" t="n">
-        <v>827215.513089927</v>
+        <v>930730.5857811572</v>
       </c>
       <c r="AE14" t="n">
-        <v>1131832.759182447</v>
+        <v>1273466.648401289</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.343998218344591e-06</v>
+        <v>1.937594404160746e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.61574074074074</v>
       </c>
       <c r="AH14" t="n">
-        <v>1023812.229183328</v>
+        <v>1151928.778799536</v>
       </c>
     </row>
     <row r="15">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>821.1742429400488</v>
+        <v>924.689315631279</v>
       </c>
       <c r="AB15" t="n">
-        <v>1123.566826841354</v>
+        <v>1265.200716060197</v>
       </c>
       <c r="AC15" t="n">
-        <v>1016.33518582356</v>
+        <v>1144.451735439769</v>
       </c>
       <c r="AD15" t="n">
-        <v>821174.2429400488</v>
+        <v>924689.315631279</v>
       </c>
       <c r="AE15" t="n">
-        <v>1123566.826841354</v>
+        <v>1265200.716060197</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.348147171462845e-06</v>
+        <v>1.943575802227594e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.54629629629629</v>
       </c>
       <c r="AH15" t="n">
-        <v>1016335.18582356</v>
+        <v>1144451.735439769</v>
       </c>
     </row>
     <row r="16">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>814.415134873859</v>
+        <v>917.7596153644971</v>
       </c>
       <c r="AB16" t="n">
-        <v>1114.318716994391</v>
+        <v>1255.719194438386</v>
       </c>
       <c r="AC16" t="n">
-        <v>1007.969702600588</v>
+        <v>1135.875116934145</v>
       </c>
       <c r="AD16" t="n">
-        <v>814415.134873859</v>
+        <v>917759.6153644971</v>
       </c>
       <c r="AE16" t="n">
-        <v>1114318.716994391</v>
+        <v>1255719.194438386</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.352926345307921e-06</v>
+        <v>1.950465767089405e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.46527777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1007969.702600588</v>
+        <v>1135875.116934145</v>
       </c>
     </row>
     <row r="17">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>808.9562828250826</v>
+        <v>903.8380772293802</v>
       </c>
       <c r="AB17" t="n">
-        <v>1106.849674793699</v>
+        <v>1236.671131787004</v>
       </c>
       <c r="AC17" t="n">
-        <v>1001.213495304663</v>
+        <v>1118.644974648086</v>
       </c>
       <c r="AD17" t="n">
-        <v>808956.2828250825</v>
+        <v>903838.0772293803</v>
       </c>
       <c r="AE17" t="n">
-        <v>1106849.6747937</v>
+        <v>1236671.131787003</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.355394709821313e-06</v>
+        <v>1.954024320369682e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.42476851851852</v>
       </c>
       <c r="AH17" t="n">
-        <v>1001213.495304663</v>
+        <v>1118644.974648086</v>
       </c>
     </row>
     <row r="18">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>801.5861099466434</v>
+        <v>896.4679043509414</v>
       </c>
       <c r="AB18" t="n">
-        <v>1096.76547911234</v>
+        <v>1226.586936105644</v>
       </c>
       <c r="AC18" t="n">
-        <v>992.091721105875</v>
+        <v>1109.523200449298</v>
       </c>
       <c r="AD18" t="n">
-        <v>801586.1099466435</v>
+        <v>896467.9043509413</v>
       </c>
       <c r="AE18" t="n">
-        <v>1096765.47911234</v>
+        <v>1226586.936105644</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.360436475635899e-06</v>
+        <v>1.961292854729395e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.33796296296297</v>
       </c>
       <c r="AH18" t="n">
-        <v>992091.721105875</v>
+        <v>1109523.200449297</v>
       </c>
     </row>
     <row r="19">
@@ -8279,28 +8279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>797.3597611349207</v>
+        <v>892.2415555392187</v>
       </c>
       <c r="AB19" t="n">
-        <v>1090.98280221479</v>
+        <v>1220.804259208094</v>
       </c>
       <c r="AC19" t="n">
-        <v>986.8609347753898</v>
+        <v>1104.292414118813</v>
       </c>
       <c r="AD19" t="n">
-        <v>797359.7611349208</v>
+        <v>892241.5555392187</v>
       </c>
       <c r="AE19" t="n">
-        <v>1090982.80221479</v>
+        <v>1220804.259208094</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.362274619422467e-06</v>
+        <v>1.963942841214707e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22.30902777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>986860.9347753897</v>
+        <v>1104292.414118812</v>
       </c>
     </row>
     <row r="20">
@@ -8385,28 +8385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>792.3693715549326</v>
+        <v>887.2511659592305</v>
       </c>
       <c r="AB20" t="n">
-        <v>1084.154731031</v>
+        <v>1213.976188024304</v>
       </c>
       <c r="AC20" t="n">
-        <v>980.6845251221226</v>
+        <v>1098.116004465545</v>
       </c>
       <c r="AD20" t="n">
-        <v>792369.3715549327</v>
+        <v>887251.1659592305</v>
       </c>
       <c r="AE20" t="n">
-        <v>1084154.731031</v>
+        <v>1213976.188024304</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.364742983935858e-06</v>
+        <v>1.967501394494984e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>22.26851851851852</v>
       </c>
       <c r="AH20" t="n">
-        <v>980684.5251221226</v>
+        <v>1098116.004465545</v>
       </c>
     </row>
     <row r="21">
@@ -8491,28 +8491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>786.7622171969381</v>
+        <v>881.644011601236</v>
       </c>
       <c r="AB21" t="n">
-        <v>1076.4827750682</v>
+        <v>1206.304232061505</v>
       </c>
       <c r="AC21" t="n">
-        <v>973.7447698687548</v>
+        <v>1091.176249212177</v>
       </c>
       <c r="AD21" t="n">
-        <v>786762.2171969381</v>
+        <v>881644.011601236</v>
       </c>
       <c r="AE21" t="n">
-        <v>1076482.7750682</v>
+        <v>1206304.232061505</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.367631495600465e-06</v>
+        <v>1.971665658971903e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>973744.7698687548</v>
+        <v>1091176.249212177</v>
       </c>
     </row>
     <row r="22">
@@ -8597,28 +8597,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>781.8285681467946</v>
+        <v>876.7103625510924</v>
       </c>
       <c r="AB22" t="n">
-        <v>1069.73233878056</v>
+        <v>1199.553795773864</v>
       </c>
       <c r="AC22" t="n">
-        <v>967.6385857461092</v>
+        <v>1085.070065089532</v>
       </c>
       <c r="AD22" t="n">
-        <v>781828.5681467946</v>
+        <v>876710.3625510924</v>
       </c>
       <c r="AE22" t="n">
-        <v>1069732.33878056</v>
+        <v>1199553.795773864</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.369574676174837e-06</v>
+        <v>1.974467073256376e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>22.19328703703704</v>
       </c>
       <c r="AH22" t="n">
-        <v>967638.5857461093</v>
+        <v>1085070.065089532</v>
       </c>
     </row>
     <row r="23">
@@ -8703,28 +8703,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>776.133641375329</v>
+        <v>871.015435779627</v>
       </c>
       <c r="AB23" t="n">
-        <v>1061.940288729403</v>
+        <v>1191.761745722707</v>
       </c>
       <c r="AC23" t="n">
-        <v>960.5901980156242</v>
+        <v>1078.021677359047</v>
       </c>
       <c r="AD23" t="n">
-        <v>776133.641375329</v>
+        <v>871015.4357796269</v>
       </c>
       <c r="AE23" t="n">
-        <v>1061940.288729403</v>
+        <v>1191761.745722707</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.372253114263836e-06</v>
+        <v>1.978328482134974e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>22.14699074074074</v>
       </c>
       <c r="AH23" t="n">
-        <v>960590.1980156242</v>
+        <v>1078021.677359047</v>
       </c>
     </row>
     <row r="24">
@@ -8809,28 +8809,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>771.3996757681161</v>
+        <v>866.2814701724141</v>
       </c>
       <c r="AB24" t="n">
-        <v>1055.463068137791</v>
+        <v>1185.284525131096</v>
       </c>
       <c r="AC24" t="n">
-        <v>954.7311542664398</v>
+        <v>1072.162633609862</v>
       </c>
       <c r="AD24" t="n">
-        <v>771399.6757681161</v>
+        <v>866281.4701724141</v>
       </c>
       <c r="AE24" t="n">
-        <v>1055463.068137791</v>
+        <v>1185284.525131096</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.372463187839444e-06</v>
+        <v>1.978631337733296e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>22.14699074074074</v>
       </c>
       <c r="AH24" t="n">
-        <v>954731.1542664398</v>
+        <v>1072162.633609863</v>
       </c>
     </row>
     <row r="25">
@@ -8915,28 +8915,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>768.350277523706</v>
+        <v>863.232071928004</v>
       </c>
       <c r="AB25" t="n">
-        <v>1051.290746929834</v>
+        <v>1181.112203923138</v>
       </c>
       <c r="AC25" t="n">
-        <v>950.9570335386801</v>
+        <v>1068.388512882103</v>
       </c>
       <c r="AD25" t="n">
-        <v>768350.2775237061</v>
+        <v>863232.0719280039</v>
       </c>
       <c r="AE25" t="n">
-        <v>1051290.746929834</v>
+        <v>1181112.203923138</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.374616441989423e-06</v>
+        <v>1.98173560761609e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>22.11226851851852</v>
       </c>
       <c r="AH25" t="n">
-        <v>950957.0335386801</v>
+        <v>1068388.512882103</v>
       </c>
     </row>
     <row r="26">
@@ -9021,28 +9021,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>769.1116708328453</v>
+        <v>863.993465237143</v>
       </c>
       <c r="AB26" t="n">
-        <v>1052.3325188457</v>
+        <v>1182.153975839004</v>
       </c>
       <c r="AC26" t="n">
-        <v>951.8993802050322</v>
+        <v>1069.330859548455</v>
       </c>
       <c r="AD26" t="n">
-        <v>769111.6708328454</v>
+        <v>863993.465237143</v>
       </c>
       <c r="AE26" t="n">
-        <v>1052332.5188457</v>
+        <v>1182153.975839004</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.37424881323211e-06</v>
+        <v>1.981205610319027e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>951899.3802050322</v>
+        <v>1069330.859548455</v>
       </c>
     </row>
     <row r="27">
@@ -9127,28 +9127,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>771.488578327105</v>
+        <v>866.3703727314028</v>
       </c>
       <c r="AB27" t="n">
-        <v>1055.584708541104</v>
+        <v>1185.406165534408</v>
       </c>
       <c r="AC27" t="n">
-        <v>954.8411854803837</v>
+        <v>1072.272664823806</v>
       </c>
       <c r="AD27" t="n">
-        <v>771488.5783271049</v>
+        <v>866370.3727314027</v>
       </c>
       <c r="AE27" t="n">
-        <v>1055584.708541104</v>
+        <v>1185406.165534408</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.374301331626012e-06</v>
+        <v>1.981281324218608e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22.11226851851852</v>
       </c>
       <c r="AH27" t="n">
-        <v>954841.1854803837</v>
+        <v>1072272.664823806</v>
       </c>
     </row>
   </sheetData>
@@ -9424,28 +9424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1607.964429341962</v>
+        <v>1776.056877878308</v>
       </c>
       <c r="AB2" t="n">
-        <v>2200.087870609715</v>
+        <v>2430.079374412598</v>
       </c>
       <c r="AC2" t="n">
-        <v>1990.114572081443</v>
+        <v>2198.156009556481</v>
       </c>
       <c r="AD2" t="n">
-        <v>1607964.429341962</v>
+        <v>1776056.877878308</v>
       </c>
       <c r="AE2" t="n">
-        <v>2200087.870609715</v>
+        <v>2430079.374412598</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.504203477847217e-07</v>
+        <v>1.244983397233855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.97337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1990114.572081443</v>
+        <v>2198156.009556482</v>
       </c>
     </row>
     <row r="3">
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1052.259282293056</v>
+        <v>1178.349953908958</v>
       </c>
       <c r="AB3" t="n">
-        <v>1439.747572436566</v>
+        <v>1612.270392069277</v>
       </c>
       <c r="AC3" t="n">
-        <v>1302.340084821629</v>
+        <v>1458.397568685892</v>
       </c>
       <c r="AD3" t="n">
-        <v>1052259.282293056</v>
+        <v>1178349.953908958</v>
       </c>
       <c r="AE3" t="n">
-        <v>1439747.572436566</v>
+        <v>1612270.392069277</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.129185236590919e-06</v>
+        <v>1.653084707602915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.84143518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1302340.084821629</v>
+        <v>1458397.568685892</v>
       </c>
     </row>
     <row r="4">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>926.6110533310923</v>
+        <v>1036.037559546131</v>
       </c>
       <c r="AB4" t="n">
-        <v>1267.830122362165</v>
+        <v>1417.552295722324</v>
       </c>
       <c r="AC4" t="n">
-        <v>1146.830194894672</v>
+        <v>1282.263094165728</v>
       </c>
       <c r="AD4" t="n">
-        <v>926611.0533310923</v>
+        <v>1036037.559546132</v>
       </c>
       <c r="AE4" t="n">
-        <v>1267830.122362165</v>
+        <v>1417552.295722324</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.232791676457109e-06</v>
+        <v>1.804760638001239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.50347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1146830.194894672</v>
+        <v>1282263.094165727</v>
       </c>
     </row>
     <row r="5">
@@ -9742,28 +9742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>866.5076385099402</v>
+        <v>967.431469823956</v>
       </c>
       <c r="AB5" t="n">
-        <v>1185.593978628342</v>
+        <v>1323.682417077378</v>
       </c>
       <c r="AC5" t="n">
-        <v>1072.442553299652</v>
+        <v>1197.352024991453</v>
       </c>
       <c r="AD5" t="n">
-        <v>866507.6385099402</v>
+        <v>967431.469823956</v>
       </c>
       <c r="AE5" t="n">
-        <v>1185593.978628342</v>
+        <v>1323682.417077378</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288805436028184e-06</v>
+        <v>1.886762674834313e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.39236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1072442.553299652</v>
+        <v>1197352.024991453</v>
       </c>
     </row>
     <row r="6">
@@ -9848,28 +9848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>826.0906029166013</v>
+        <v>927.0996855766377</v>
       </c>
       <c r="AB6" t="n">
-        <v>1130.293607455768</v>
+        <v>1268.498690557454</v>
       </c>
       <c r="AC6" t="n">
-        <v>1022.419971937231</v>
+        <v>1147.434955879743</v>
       </c>
       <c r="AD6" t="n">
-        <v>826090.6029166012</v>
+        <v>927099.6855766377</v>
       </c>
       <c r="AE6" t="n">
-        <v>1130293.607455768</v>
+        <v>1268498.690557454</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324825923511815e-06</v>
+        <v>1.939495313457328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.73263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1022419.971937231</v>
+        <v>1147434.955879743</v>
       </c>
     </row>
     <row r="7">
@@ -9954,28 +9954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>805.3695697214559</v>
+        <v>906.2080601809001</v>
       </c>
       <c r="AB7" t="n">
-        <v>1101.942175690703</v>
+        <v>1239.913847017541</v>
       </c>
       <c r="AC7" t="n">
-        <v>996.7743610283388</v>
+        <v>1121.578209688201</v>
       </c>
       <c r="AD7" t="n">
-        <v>805369.5697214559</v>
+        <v>906208.0601809002</v>
       </c>
       <c r="AE7" t="n">
-        <v>1101942.175690703</v>
+        <v>1239913.847017542</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.347970309134781e-06</v>
+        <v>1.973377823341798e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.32175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>996774.3610283388</v>
+        <v>1121578.209688201</v>
       </c>
     </row>
     <row r="8">
@@ -10060,28 +10060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>790.0999359193246</v>
+        <v>882.6916845329091</v>
       </c>
       <c r="AB8" t="n">
-        <v>1081.049589073928</v>
+        <v>1207.737704386688</v>
       </c>
       <c r="AC8" t="n">
-        <v>977.8757335553388</v>
+        <v>1092.472912950536</v>
       </c>
       <c r="AD8" t="n">
-        <v>790099.9359193246</v>
+        <v>882691.6845329091</v>
       </c>
       <c r="AE8" t="n">
-        <v>1081049.589073928</v>
+        <v>1207737.704386688</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363997524530967e-06</v>
+        <v>1.996841063754754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.04976851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>977875.7335553388</v>
+        <v>1092472.912950536</v>
       </c>
     </row>
     <row r="9">
@@ -10166,28 +10166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>768.6356172469948</v>
+        <v>869.5593590524595</v>
       </c>
       <c r="AB9" t="n">
-        <v>1051.681161327538</v>
+        <v>1189.769477307025</v>
       </c>
       <c r="AC9" t="n">
-        <v>951.3101873342172</v>
+        <v>1076.219548244791</v>
       </c>
       <c r="AD9" t="n">
-        <v>768635.6172469947</v>
+        <v>869559.3590524595</v>
       </c>
       <c r="AE9" t="n">
-        <v>1051681.161327538</v>
+        <v>1189769.477307025</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.376873626391631e-06</v>
+        <v>2.015691192493297e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.83564814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>951310.1873342171</v>
+        <v>1076219.548244791</v>
       </c>
     </row>
     <row r="10">
@@ -10272,28 +10272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>756.1103687109529</v>
+        <v>857.0341105164177</v>
       </c>
       <c r="AB10" t="n">
-        <v>1034.543563705559</v>
+        <v>1172.631879685046</v>
       </c>
       <c r="AC10" t="n">
-        <v>935.8081779765104</v>
+        <v>1060.717538887084</v>
       </c>
       <c r="AD10" t="n">
-        <v>756110.3687109529</v>
+        <v>857034.1105164178</v>
       </c>
       <c r="AE10" t="n">
-        <v>1034543.563705559</v>
+        <v>1172631.879685046</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.388228501028251e-06</v>
+        <v>2.032314301802815e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.65046296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>935808.1779765104</v>
+        <v>1060717.538887084</v>
       </c>
     </row>
     <row r="11">
@@ -10378,28 +10378,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>745.6494238721356</v>
+        <v>846.5731656776003</v>
       </c>
       <c r="AB11" t="n">
-        <v>1020.230437472774</v>
+        <v>1158.318753452261</v>
       </c>
       <c r="AC11" t="n">
-        <v>922.8610764227836</v>
+        <v>1047.770437333358</v>
       </c>
       <c r="AD11" t="n">
-        <v>745649.4238721356</v>
+        <v>846573.1656776003</v>
       </c>
       <c r="AE11" t="n">
-        <v>1020230.437472774</v>
+        <v>1158318.753452261</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.396921228022792e-06</v>
+        <v>2.045040127111536e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.50578703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>922861.0764227837</v>
+        <v>1047770.437333358</v>
       </c>
     </row>
     <row r="12">
@@ -10484,28 +10484,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>737.4975939890068</v>
+        <v>830.0040017480194</v>
       </c>
       <c r="AB12" t="n">
-        <v>1009.076744193324</v>
+        <v>1135.648092383886</v>
       </c>
       <c r="AC12" t="n">
-        <v>912.7718759756178</v>
+        <v>1027.263432338876</v>
       </c>
       <c r="AD12" t="n">
-        <v>737497.5939890067</v>
+        <v>830004.0017480194</v>
       </c>
       <c r="AE12" t="n">
-        <v>1009076.744193324</v>
+        <v>1135648.092383886</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.403277784637551e-06</v>
+        <v>2.054345886868539e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.40740740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>912771.8759756178</v>
+        <v>1027263.432338876</v>
       </c>
     </row>
     <row r="13">
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>730.0233112927278</v>
+        <v>822.5297190517406</v>
       </c>
       <c r="AB13" t="n">
-        <v>998.8501008661947</v>
+        <v>1125.421449056757</v>
       </c>
       <c r="AC13" t="n">
-        <v>903.5212491344457</v>
+        <v>1018.012805497704</v>
       </c>
       <c r="AD13" t="n">
-        <v>730023.3112927278</v>
+        <v>822529.7190517406</v>
       </c>
       <c r="AE13" t="n">
-        <v>998850.1008661947</v>
+        <v>1125421.449056757</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.407569818591105e-06</v>
+        <v>2.06062926311472e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.33796296296297</v>
       </c>
       <c r="AH13" t="n">
-        <v>903521.2491344457</v>
+        <v>1018012.805497703</v>
       </c>
     </row>
     <row r="14">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>723.0965407562762</v>
+        <v>815.602948515289</v>
       </c>
       <c r="AB14" t="n">
-        <v>989.3725878306727</v>
+        <v>1115.943936021235</v>
       </c>
       <c r="AC14" t="n">
-        <v>894.948256641261</v>
+        <v>1009.439813004519</v>
       </c>
       <c r="AD14" t="n">
-        <v>723096.5407562762</v>
+        <v>815602.948515289</v>
       </c>
       <c r="AE14" t="n">
-        <v>989372.5878306727</v>
+        <v>1115943.936021235</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.411264227563785e-06</v>
+        <v>2.066037738870927e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.2800925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>894948.2566412609</v>
+        <v>1009439.813004519</v>
       </c>
     </row>
     <row r="15">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>714.6815854898142</v>
+        <v>807.1879932488268</v>
       </c>
       <c r="AB15" t="n">
-        <v>977.858874793474</v>
+        <v>1104.430222984036</v>
       </c>
       <c r="AC15" t="n">
-        <v>884.5333962167347</v>
+        <v>999.0249525799926</v>
       </c>
       <c r="AD15" t="n">
-        <v>714681.5854898142</v>
+        <v>807187.9932488268</v>
       </c>
       <c r="AE15" t="n">
-        <v>977858.874793474</v>
+        <v>1104430.222984036</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.416534193304226e-06</v>
+        <v>2.073752770464339e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.19328703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>884533.3962167347</v>
+        <v>999024.9525799926</v>
       </c>
     </row>
     <row r="16">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>706.6009729448147</v>
+        <v>799.1073807038272</v>
       </c>
       <c r="AB16" t="n">
-        <v>966.8026242179399</v>
+        <v>1093.373972408502</v>
       </c>
       <c r="AC16" t="n">
-        <v>874.5323386785844</v>
+        <v>989.0238950418424</v>
       </c>
       <c r="AD16" t="n">
-        <v>706600.9729448147</v>
+        <v>799107.3807038271</v>
       </c>
       <c r="AE16" t="n">
-        <v>966802.6242179399</v>
+        <v>1093373.972408502</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.42109787497636e-06</v>
+        <v>2.080433828751418e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.12384259259259</v>
       </c>
       <c r="AH16" t="n">
-        <v>874532.3386785844</v>
+        <v>989023.8950418424</v>
       </c>
     </row>
     <row r="17">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>701.2062876190456</v>
+        <v>793.7126953780584</v>
       </c>
       <c r="AB17" t="n">
-        <v>959.4213777585032</v>
+        <v>1085.992725949066</v>
       </c>
       <c r="AC17" t="n">
-        <v>867.855548021592</v>
+        <v>982.3471043848498</v>
       </c>
       <c r="AD17" t="n">
-        <v>701206.2876190456</v>
+        <v>793712.6953780584</v>
       </c>
       <c r="AE17" t="n">
-        <v>959421.3777585032</v>
+        <v>1085992.725949066</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.423271056724996e-06</v>
+        <v>2.083615285078598e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.08912037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>867855.548021592</v>
+        <v>982347.1043848498</v>
       </c>
     </row>
     <row r="18">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>696.7148491809838</v>
+        <v>789.2212569399967</v>
       </c>
       <c r="AB18" t="n">
-        <v>953.2759935392679</v>
+        <v>1079.84734172983</v>
       </c>
       <c r="AC18" t="n">
-        <v>862.2966706471394</v>
+        <v>976.7882270103972</v>
       </c>
       <c r="AD18" t="n">
-        <v>696714.8491809838</v>
+        <v>789221.2569399967</v>
       </c>
       <c r="AE18" t="n">
-        <v>953275.9935392679</v>
+        <v>1079847.34172983</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.425281249842483e-06</v>
+        <v>2.08655813218124e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH18" t="n">
-        <v>862296.6706471394</v>
+        <v>976788.2270103972</v>
       </c>
     </row>
     <row r="19">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>698.4458151324001</v>
+        <v>790.9522228914129</v>
       </c>
       <c r="AB19" t="n">
-        <v>955.6443775188238</v>
+        <v>1082.215725709386</v>
       </c>
       <c r="AC19" t="n">
-        <v>864.4390193837344</v>
+        <v>978.9305757469922</v>
       </c>
       <c r="AD19" t="n">
-        <v>698445.8151324</v>
+        <v>790952.2228914129</v>
       </c>
       <c r="AE19" t="n">
-        <v>955644.3775188238</v>
+        <v>1082215.725709386</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.424737954405324e-06</v>
+        <v>2.085762768099445e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22.06597222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>864439.0193837343</v>
+        <v>978930.5757469921</v>
       </c>
     </row>
   </sheetData>
@@ -11523,28 +11523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>774.8823287398046</v>
+        <v>883.6243710191625</v>
       </c>
       <c r="AB2" t="n">
-        <v>1060.228187577461</v>
+        <v>1209.013847184403</v>
       </c>
       <c r="AC2" t="n">
-        <v>959.0414973946745</v>
+        <v>1093.627262470715</v>
       </c>
       <c r="AD2" t="n">
-        <v>774882.3287398046</v>
+        <v>883624.3710191625</v>
       </c>
       <c r="AE2" t="n">
-        <v>1060228.187577461</v>
+        <v>1209013.847184403</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.270251658674645e-06</v>
+        <v>1.965236106834786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.62152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>959041.4973946745</v>
+        <v>1093627.262470715</v>
       </c>
     </row>
     <row r="3">
@@ -11629,28 +11629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>623.6794243004854</v>
+        <v>716.8016377653431</v>
       </c>
       <c r="AB3" t="n">
-        <v>853.3457031222284</v>
+        <v>980.759623846958</v>
       </c>
       <c r="AC3" t="n">
-        <v>771.9035868944586</v>
+        <v>887.1573018517811</v>
       </c>
       <c r="AD3" t="n">
-        <v>623679.4243004854</v>
+        <v>716801.6377653431</v>
       </c>
       <c r="AE3" t="n">
-        <v>853345.7031222284</v>
+        <v>980759.623846958</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.460428695531532e-06</v>
+        <v>2.25946345695843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.02199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>771903.5868944586</v>
+        <v>887157.3018517811</v>
       </c>
     </row>
     <row r="4">
@@ -11735,28 +11735,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.8669301348658</v>
+        <v>657.9890540911725</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.8758539807045</v>
+        <v>900.2896522358858</v>
       </c>
       <c r="AC4" t="n">
-        <v>699.1136672148593</v>
+        <v>814.367271390955</v>
       </c>
       <c r="AD4" t="n">
-        <v>564866.9301348658</v>
+        <v>657989.0540911725</v>
       </c>
       <c r="AE4" t="n">
-        <v>772875.8539807046</v>
+        <v>900289.6522358858</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.530146130145948e-06</v>
+        <v>2.367324933733117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.92824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>699113.6672148593</v>
+        <v>814367.271390955</v>
       </c>
     </row>
     <row r="5">
@@ -11841,28 +11841,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>539.589170009617</v>
+        <v>624.9440947402348</v>
       </c>
       <c r="AB5" t="n">
-        <v>738.2897074012675</v>
+        <v>855.0760810112157</v>
       </c>
       <c r="AC5" t="n">
-        <v>667.8283739230021</v>
+        <v>773.4688199463216</v>
       </c>
       <c r="AD5" t="n">
-        <v>539589.170009617</v>
+        <v>624944.0947402349</v>
       </c>
       <c r="AE5" t="n">
-        <v>738289.7074012675</v>
+        <v>855076.0810112157</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56373174647324e-06</v>
+        <v>2.419286027761966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.4363425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>667828.3739230022</v>
+        <v>773468.8199463215</v>
       </c>
     </row>
     <row r="6">
@@ -11947,28 +11947,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>524.6736926323035</v>
+        <v>610.0286173629214</v>
       </c>
       <c r="AB6" t="n">
-        <v>717.8816932292065</v>
+        <v>834.6680668391544</v>
       </c>
       <c r="AC6" t="n">
-        <v>649.3680719806948</v>
+        <v>755.0085180040141</v>
       </c>
       <c r="AD6" t="n">
-        <v>524673.6926323036</v>
+        <v>610028.6173629214</v>
       </c>
       <c r="AE6" t="n">
-        <v>717881.6932292065</v>
+        <v>834668.0668391545</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.579857692218835e-06</v>
+        <v>2.444234856302893e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.20486111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>649368.0719806948</v>
+        <v>755008.5180040142</v>
       </c>
     </row>
     <row r="7">
@@ -12053,28 +12053,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>527.136067795157</v>
+        <v>612.490992525775</v>
       </c>
       <c r="AB7" t="n">
-        <v>721.250823559348</v>
+        <v>838.037197169296</v>
       </c>
       <c r="AC7" t="n">
-        <v>652.4156572407318</v>
+        <v>758.056103264051</v>
       </c>
       <c r="AD7" t="n">
-        <v>527136.0677951571</v>
+        <v>612490.992525775</v>
       </c>
       <c r="AE7" t="n">
-        <v>721250.823559348</v>
+        <v>838037.197169296</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.579130205944598e-06</v>
+        <v>2.443109345240896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.21643518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>652415.6572407318</v>
+        <v>758056.103264051</v>
       </c>
     </row>
   </sheetData>
@@ -12350,28 +12350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1020.734554784535</v>
+        <v>1148.822069917284</v>
       </c>
       <c r="AB2" t="n">
-        <v>1396.614049486585</v>
+        <v>1571.869038513565</v>
       </c>
       <c r="AC2" t="n">
-        <v>1263.323164763714</v>
+        <v>1421.852063609881</v>
       </c>
       <c r="AD2" t="n">
-        <v>1020734.554784535</v>
+        <v>1148822.069917284</v>
       </c>
       <c r="AE2" t="n">
-        <v>1396614.049486585</v>
+        <v>1571869.038513565</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.103275399160107e-06</v>
+        <v>1.667373456278273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.42245370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1263323.164763714</v>
+        <v>1421852.063609882</v>
       </c>
     </row>
     <row r="3">
@@ -12456,28 +12456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>767.1878996437846</v>
+        <v>871.2963590958719</v>
       </c>
       <c r="AB3" t="n">
-        <v>1049.700330234032</v>
+        <v>1192.146117397456</v>
       </c>
       <c r="AC3" t="n">
-        <v>949.518403980162</v>
+        <v>1078.369365140626</v>
       </c>
       <c r="AD3" t="n">
-        <v>767187.8996437846</v>
+        <v>871296.3590958719</v>
       </c>
       <c r="AE3" t="n">
-        <v>1049700.330234032</v>
+        <v>1192146.117397456</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.33027534198262e-06</v>
+        <v>2.010437100702032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.23148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>949518.403980162</v>
+        <v>1078369.365140626</v>
       </c>
     </row>
     <row r="4">
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>692.5540143645927</v>
+        <v>796.662384308129</v>
       </c>
       <c r="AB4" t="n">
-        <v>947.5829557804047</v>
+        <v>1090.02862047428</v>
       </c>
       <c r="AC4" t="n">
-        <v>857.1469684217535</v>
+        <v>985.9978188009911</v>
       </c>
       <c r="AD4" t="n">
-        <v>692554.0143645927</v>
+        <v>796662.3843081291</v>
       </c>
       <c r="AE4" t="n">
-        <v>947582.9557804047</v>
+        <v>1090028.62047428</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.411181044649305e-06</v>
+        <v>2.132709401154547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.78472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>857146.9684217535</v>
+        <v>985997.8188009912</v>
       </c>
     </row>
     <row r="5">
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>661.5044861950296</v>
+        <v>749.740696332771</v>
       </c>
       <c r="AB5" t="n">
-        <v>905.0996215303018</v>
+        <v>1025.828296947617</v>
       </c>
       <c r="AC5" t="n">
-        <v>818.7181839667461</v>
+        <v>927.9246840459932</v>
       </c>
       <c r="AD5" t="n">
-        <v>661504.4861950296</v>
+        <v>749740.696332771</v>
       </c>
       <c r="AE5" t="n">
-        <v>905099.6215303018</v>
+        <v>1025828.296947617</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.453228811268191e-06</v>
+        <v>2.196255937232019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.09606481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>818718.1839667461</v>
+        <v>927924.6840459933</v>
       </c>
     </row>
     <row r="6">
@@ -12774,28 +12774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>631.9333659138192</v>
+        <v>728.1056112001825</v>
       </c>
       <c r="AB6" t="n">
-        <v>864.6391101757958</v>
+        <v>996.2262189966169</v>
       </c>
       <c r="AC6" t="n">
-        <v>782.1191670292301</v>
+        <v>901.1477868678593</v>
       </c>
       <c r="AD6" t="n">
-        <v>631933.3659138192</v>
+        <v>728105.6112001825</v>
       </c>
       <c r="AE6" t="n">
-        <v>864639.1101757959</v>
+        <v>996226.2189966169</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.480313372662701e-06</v>
+        <v>2.23718867150537e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.67361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>782119.16702923</v>
+        <v>901147.7868678593</v>
       </c>
     </row>
     <row r="7">
@@ -12880,28 +12880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>614.7841919999206</v>
+        <v>702.9350612830905</v>
       </c>
       <c r="AB7" t="n">
-        <v>841.1748538586429</v>
+        <v>961.7867621537607</v>
       </c>
       <c r="AC7" t="n">
-        <v>760.8943064026955</v>
+        <v>869.995183450004</v>
       </c>
       <c r="AD7" t="n">
-        <v>614784.1919999206</v>
+        <v>702935.0612830905</v>
       </c>
       <c r="AE7" t="n">
-        <v>841174.8538586429</v>
+        <v>961786.7621537608</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.498408411538691e-06</v>
+        <v>2.26453559461733e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.40162037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>760894.3064026955</v>
+        <v>869995.183450004</v>
       </c>
     </row>
     <row r="8">
@@ -12986,28 +12986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>601.3592296830644</v>
+        <v>689.5100989662342</v>
       </c>
       <c r="AB8" t="n">
-        <v>822.8062281491829</v>
+        <v>943.4181364443007</v>
       </c>
       <c r="AC8" t="n">
-        <v>744.2787565504182</v>
+        <v>853.3796335977266</v>
       </c>
       <c r="AD8" t="n">
-        <v>601359.2296830644</v>
+        <v>689510.0989662341</v>
       </c>
       <c r="AE8" t="n">
-        <v>822806.2281491829</v>
+        <v>943418.1364443006</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.509659813916711e-06</v>
+        <v>2.281539771167716e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>744278.7565504182</v>
+        <v>853379.6335977266</v>
       </c>
     </row>
     <row r="9">
@@ -13092,28 +13092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>588.4585169293374</v>
+        <v>676.6093862125073</v>
       </c>
       <c r="AB9" t="n">
-        <v>805.1549038202548</v>
+        <v>925.7668121153727</v>
       </c>
       <c r="AC9" t="n">
-        <v>728.3120498416538</v>
+        <v>837.4129268889621</v>
       </c>
       <c r="AD9" t="n">
-        <v>588458.5169293374</v>
+        <v>676609.3862125073</v>
       </c>
       <c r="AE9" t="n">
-        <v>805154.9038202548</v>
+        <v>925766.8121153726</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.519925268663666e-06</v>
+        <v>2.297053891010078e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>728312.0498416538</v>
+        <v>837412.9268889622</v>
       </c>
     </row>
     <row r="10">
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>587.8207155410396</v>
+        <v>675.9715848242095</v>
       </c>
       <c r="AB10" t="n">
-        <v>804.2822358229744</v>
+        <v>924.8941441180923</v>
       </c>
       <c r="AC10" t="n">
-        <v>727.5226680532365</v>
+        <v>836.6235451005449</v>
       </c>
       <c r="AD10" t="n">
-        <v>587820.7155410396</v>
+        <v>675971.5848242095</v>
       </c>
       <c r="AE10" t="n">
-        <v>804282.2358229744</v>
+        <v>924894.1441180923</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52091121629473e-06</v>
+        <v>2.298543947718101e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.06597222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>727522.6680532366</v>
+        <v>836623.5451005449</v>
       </c>
     </row>
   </sheetData>
@@ -13495,28 +13495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>615.1564108980346</v>
+        <v>720.8090921088674</v>
       </c>
       <c r="AB2" t="n">
-        <v>841.6841401761811</v>
+        <v>986.242799676176</v>
       </c>
       <c r="AC2" t="n">
-        <v>761.3549871488757</v>
+        <v>892.1171710755441</v>
       </c>
       <c r="AD2" t="n">
-        <v>615156.4108980346</v>
+        <v>720809.0921088674</v>
       </c>
       <c r="AE2" t="n">
-        <v>841684.1401761811</v>
+        <v>986242.799676176</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411063248211119e-06</v>
+        <v>2.230168517411396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.82175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>761354.9871488757</v>
+        <v>892117.1710755441</v>
       </c>
     </row>
     <row r="3">
@@ -13601,28 +13601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.2217106082267</v>
+        <v>603.7568580533282</v>
       </c>
       <c r="AB3" t="n">
-        <v>702.2125861980745</v>
+        <v>826.0867690612762</v>
       </c>
       <c r="AC3" t="n">
-        <v>635.1944025328842</v>
+        <v>747.2462072421296</v>
       </c>
       <c r="AD3" t="n">
-        <v>513221.7106082267</v>
+        <v>603756.8580533282</v>
       </c>
       <c r="AE3" t="n">
-        <v>702212.5861980745</v>
+        <v>826086.7690612762</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574641059056351e-06</v>
+        <v>2.488701282938807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.13657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>635194.4025328842</v>
+        <v>747246.2072421296</v>
       </c>
     </row>
     <row r="4">
@@ -13707,28 +13707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>474.9224851200101</v>
+        <v>565.3722917105401</v>
       </c>
       <c r="AB4" t="n">
-        <v>649.8098962425172</v>
+        <v>773.5673119835212</v>
       </c>
       <c r="AC4" t="n">
-        <v>587.7929517590479</v>
+        <v>699.7391334363546</v>
       </c>
       <c r="AD4" t="n">
-        <v>474922.4851200101</v>
+        <v>565372.2917105402</v>
       </c>
       <c r="AE4" t="n">
-        <v>649809.8962425172</v>
+        <v>773567.3119835212</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.622429957605824e-06</v>
+        <v>2.564231063167947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.45949074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>587792.9517590479</v>
+        <v>699739.1334363546</v>
       </c>
     </row>
     <row r="5">
@@ -13813,28 +13813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.4807321052447</v>
+        <v>567.9305386957748</v>
       </c>
       <c r="AB5" t="n">
-        <v>653.3102026296066</v>
+        <v>777.0676183706106</v>
       </c>
       <c r="AC5" t="n">
-        <v>590.9591938172643</v>
+        <v>702.9053754945712</v>
       </c>
       <c r="AD5" t="n">
-        <v>477480.7321052446</v>
+        <v>567930.5386957747</v>
       </c>
       <c r="AE5" t="n">
-        <v>653310.2026296066</v>
+        <v>777067.6183706106</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.62280773545997e-06</v>
+        <v>2.564828136529442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.45370370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>590959.1938172644</v>
+        <v>702905.3754945712</v>
       </c>
     </row>
   </sheetData>
@@ -14110,28 +14110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1727.71681568486</v>
+        <v>1888.641034735206</v>
       </c>
       <c r="AB2" t="n">
-        <v>2363.938368706491</v>
+        <v>2584.121984686662</v>
       </c>
       <c r="AC2" t="n">
-        <v>2138.327408605482</v>
+        <v>2337.497009306152</v>
       </c>
       <c r="AD2" t="n">
-        <v>1727716.81568486</v>
+        <v>1888641.034735206</v>
       </c>
       <c r="AE2" t="n">
-        <v>2363938.368706491</v>
+        <v>2584121.984686662</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.166141112309906e-07</v>
+        <v>1.190530516092847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.15393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>2138327.408605481</v>
+        <v>2337497.009306151</v>
       </c>
     </row>
     <row r="3">
@@ -14216,28 +14216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1111.051897584462</v>
+        <v>1229.605203372606</v>
       </c>
       <c r="AB3" t="n">
-        <v>1520.190222425397</v>
+        <v>1682.400085607457</v>
       </c>
       <c r="AC3" t="n">
-        <v>1375.105401197493</v>
+        <v>1521.834182700431</v>
       </c>
       <c r="AD3" t="n">
-        <v>1111051.897584462</v>
+        <v>1229605.203372606</v>
       </c>
       <c r="AE3" t="n">
-        <v>1520190.222425397</v>
+        <v>1682400.085607457</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.098312867079909e-06</v>
+        <v>1.601215269847563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.36805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1375105.401197493</v>
+        <v>1521834.182700431</v>
       </c>
     </row>
     <row r="4">
@@ -14322,28 +14322,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>961.7998161477383</v>
+        <v>1080.26769157276</v>
       </c>
       <c r="AB4" t="n">
-        <v>1315.976940066551</v>
+        <v>1478.069913656866</v>
       </c>
       <c r="AC4" t="n">
-        <v>1190.381947891835</v>
+        <v>1337.004995581607</v>
       </c>
       <c r="AD4" t="n">
-        <v>961799.8161477383</v>
+        <v>1080267.69157276</v>
       </c>
       <c r="AE4" t="n">
-        <v>1315976.940066551</v>
+        <v>1478069.913656866</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.208580269981015e-06</v>
+        <v>1.761972604650632e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1190381.947891835</v>
+        <v>1337004.995581607</v>
       </c>
     </row>
     <row r="5">
@@ -14428,28 +14428,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>897.961013536104</v>
+        <v>1008.040047163257</v>
       </c>
       <c r="AB5" t="n">
-        <v>1228.629873964112</v>
+        <v>1379.244864117002</v>
       </c>
       <c r="AC5" t="n">
-        <v>1111.371163185835</v>
+        <v>1247.611670067999</v>
       </c>
       <c r="AD5" t="n">
-        <v>897961.013536104</v>
+        <v>1008040.047163257</v>
       </c>
       <c r="AE5" t="n">
-        <v>1228629.873964112</v>
+        <v>1379244.864117002</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.266029156160448e-06</v>
+        <v>1.845726548124692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.61226851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>1111371.163185835</v>
+        <v>1247611.670067999</v>
       </c>
     </row>
     <row r="6">
@@ -14534,28 +14534,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>856.2551366552864</v>
+        <v>966.2488294278675</v>
       </c>
       <c r="AB6" t="n">
-        <v>1171.566053282345</v>
+        <v>1322.064276313038</v>
       </c>
       <c r="AC6" t="n">
-        <v>1059.75343346036</v>
+        <v>1195.888317310586</v>
       </c>
       <c r="AD6" t="n">
-        <v>856255.1366552864</v>
+        <v>966248.8294278674</v>
       </c>
       <c r="AE6" t="n">
-        <v>1171566.053282345</v>
+        <v>1322064.276313038</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.302479855263987e-06</v>
+        <v>1.898867522568871e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.92361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1059753.43346036</v>
+        <v>1195888.317310586</v>
       </c>
     </row>
     <row r="7">
@@ -14640,28 +14640,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>833.1914000525977</v>
+        <v>934.7109996812895</v>
       </c>
       <c r="AB7" t="n">
-        <v>1140.009231362299</v>
+        <v>1278.912826302918</v>
       </c>
       <c r="AC7" t="n">
-        <v>1031.208350334086</v>
+        <v>1156.855181125992</v>
       </c>
       <c r="AD7" t="n">
-        <v>833191.4000525977</v>
+        <v>934710.9996812895</v>
       </c>
       <c r="AE7" t="n">
-        <v>1140009.231362299</v>
+        <v>1278912.826302918</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.327462313733769e-06</v>
+        <v>1.935289106235191e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.47222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1031208.350334086</v>
+        <v>1156855.181125992</v>
       </c>
     </row>
     <row r="8">
@@ -14746,28 +14746,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>817.0890020141127</v>
+        <v>918.6086016428045</v>
       </c>
       <c r="AB8" t="n">
-        <v>1117.977219978379</v>
+        <v>1256.880814918998</v>
       </c>
       <c r="AC8" t="n">
-        <v>1011.279043194525</v>
+        <v>1136.925873986431</v>
       </c>
       <c r="AD8" t="n">
-        <v>817089.0020141127</v>
+        <v>918608.6016428045</v>
       </c>
       <c r="AE8" t="n">
-        <v>1117977.219978379</v>
+        <v>1256880.814918998</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.344260863394484e-06</v>
+        <v>1.959779481459096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1011279.043194525</v>
+        <v>1136925.873986431</v>
       </c>
     </row>
     <row r="9">
@@ -14852,28 +14852,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>795.871551052836</v>
+        <v>897.4764020275483</v>
       </c>
       <c r="AB9" t="n">
-        <v>1088.946567525287</v>
+        <v>1227.966807118555</v>
       </c>
       <c r="AC9" t="n">
-        <v>985.0190354667792</v>
+        <v>1110.771378509398</v>
       </c>
       <c r="AD9" t="n">
-        <v>795871.551052836</v>
+        <v>897476.4020275483</v>
       </c>
       <c r="AE9" t="n">
-        <v>1088946.567525287</v>
+        <v>1227966.807118555</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.35664440961873e-06</v>
+        <v>1.977833283707488e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH9" t="n">
-        <v>985019.0354667793</v>
+        <v>1110771.378509398</v>
       </c>
     </row>
     <row r="10">
@@ -14958,28 +14958,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>784.4965644267342</v>
+        <v>886.1014154014464</v>
       </c>
       <c r="AB10" t="n">
-        <v>1073.382808994462</v>
+        <v>1212.40304858773</v>
       </c>
       <c r="AC10" t="n">
-        <v>970.9406602062636</v>
+        <v>1096.693003248882</v>
       </c>
       <c r="AD10" t="n">
-        <v>784496.5644267341</v>
+        <v>886101.4154014464</v>
       </c>
       <c r="AE10" t="n">
-        <v>1073382.808994462</v>
+        <v>1212403.04858773</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.367089661651354e-06</v>
+        <v>1.993061273430044e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.78935185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>970940.6602062637</v>
+        <v>1096693.003248882</v>
       </c>
     </row>
     <row r="11">
@@ -15064,28 +15064,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>773.6831903001541</v>
+        <v>875.2880412748666</v>
       </c>
       <c r="AB11" t="n">
-        <v>1058.587473462077</v>
+        <v>1197.607713055345</v>
       </c>
       <c r="AC11" t="n">
-        <v>957.557370731706</v>
+        <v>1083.309713774324</v>
       </c>
       <c r="AD11" t="n">
-        <v>773683.1903001542</v>
+        <v>875288.0412748666</v>
       </c>
       <c r="AE11" t="n">
-        <v>1058587.473462077</v>
+        <v>1197607.713055345</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.376781132609459e-06</v>
+        <v>2.00719033605922e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.63310185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>957557.370731706</v>
+        <v>1083309.713774324</v>
       </c>
     </row>
     <row r="12">
@@ -15170,28 +15170,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>765.7211659781871</v>
+        <v>867.3260169528995</v>
       </c>
       <c r="AB12" t="n">
-        <v>1047.693480525039</v>
+        <v>1186.713720118307</v>
       </c>
       <c r="AC12" t="n">
-        <v>947.7030851907642</v>
+        <v>1073.455428233383</v>
       </c>
       <c r="AD12" t="n">
-        <v>765721.1659781871</v>
+        <v>867326.0169528995</v>
       </c>
       <c r="AE12" t="n">
-        <v>1047693.480525039</v>
+        <v>1186713.720118308</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.382972905721581e-06</v>
+        <v>2.016217237183416e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.52893518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>947703.0851907643</v>
+        <v>1073455.428233383</v>
       </c>
     </row>
     <row r="13">
@@ -15276,28 +15276,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>757.1608831391553</v>
+        <v>850.2916409699785</v>
       </c>
       <c r="AB13" t="n">
-        <v>1035.980923891651</v>
+        <v>1163.406535394845</v>
       </c>
       <c r="AC13" t="n">
-        <v>937.1083585237898</v>
+        <v>1052.372648508088</v>
       </c>
       <c r="AD13" t="n">
-        <v>757160.8831391553</v>
+        <v>850291.6409699785</v>
       </c>
       <c r="AE13" t="n">
-        <v>1035980.923891651</v>
+        <v>1163406.535394845</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389703093886932e-06</v>
+        <v>2.026029086231455e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.41898148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>937108.3585237898</v>
+        <v>1052372.648508088</v>
       </c>
     </row>
     <row r="14">
@@ -15382,28 +15382,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>750.0237840667197</v>
+        <v>843.1545418975427</v>
       </c>
       <c r="AB14" t="n">
-        <v>1026.215630074155</v>
+        <v>1153.64124157735</v>
       </c>
       <c r="AC14" t="n">
-        <v>928.27505064256</v>
+        <v>1043.539340626858</v>
       </c>
       <c r="AD14" t="n">
-        <v>750023.7840667197</v>
+        <v>843154.5418975427</v>
       </c>
       <c r="AE14" t="n">
-        <v>1026215.630074155</v>
+        <v>1153641.24157735</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.393741206786143e-06</v>
+        <v>2.031916195660278e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.35532407407408</v>
       </c>
       <c r="AH14" t="n">
-        <v>928275.05064256</v>
+        <v>1043539.340626858</v>
       </c>
     </row>
     <row r="15">
@@ -15488,28 +15488,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>742.128690303987</v>
+        <v>835.2594481348101</v>
       </c>
       <c r="AB15" t="n">
-        <v>1015.41321448103</v>
+        <v>1142.838825984224</v>
       </c>
       <c r="AC15" t="n">
-        <v>918.5036024323571</v>
+        <v>1033.767892416655</v>
       </c>
       <c r="AD15" t="n">
-        <v>742128.690303987</v>
+        <v>835259.4481348101</v>
       </c>
       <c r="AE15" t="n">
-        <v>1015413.21448103</v>
+        <v>1142838.825984224</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.398909991297132e-06</v>
+        <v>2.039451695729172e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.27430555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>918503.602432357</v>
+        <v>1033767.892416655</v>
       </c>
     </row>
     <row r="16">
@@ -15594,28 +15594,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>733.8743602629072</v>
+        <v>827.0051180937303</v>
       </c>
       <c r="AB16" t="n">
-        <v>1004.119275963484</v>
+        <v>1131.544887466678</v>
       </c>
       <c r="AC16" t="n">
-        <v>908.2875415557834</v>
+        <v>1023.551831540082</v>
       </c>
       <c r="AD16" t="n">
-        <v>733874.3602629072</v>
+        <v>827005.1180937303</v>
       </c>
       <c r="AE16" t="n">
-        <v>1004119.275963484</v>
+        <v>1131544.887466678</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.403648043765539e-06</v>
+        <v>2.046359237458992e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.19907407407408</v>
       </c>
       <c r="AH16" t="n">
-        <v>908287.5415557834</v>
+        <v>1023551.831540082</v>
       </c>
     </row>
     <row r="17">
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>728.4598458987391</v>
+        <v>821.5906037295622</v>
       </c>
       <c r="AB17" t="n">
-        <v>996.7108985389141</v>
+        <v>1124.136510042108</v>
       </c>
       <c r="AC17" t="n">
-        <v>901.5862092748914</v>
+        <v>1016.85049925919</v>
       </c>
       <c r="AD17" t="n">
-        <v>728459.8458987391</v>
+        <v>821590.6037295621</v>
       </c>
       <c r="AE17" t="n">
-        <v>996710.898538914</v>
+        <v>1124136.510042108</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.405424813441192e-06</v>
+        <v>2.048949565607674e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.17013888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>901586.2092748914</v>
+        <v>1016850.49925919</v>
       </c>
     </row>
     <row r="18">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>722.3477614662513</v>
+        <v>815.4785192970743</v>
       </c>
       <c r="AB18" t="n">
-        <v>988.3480749722499</v>
+        <v>1115.773686475444</v>
       </c>
       <c r="AC18" t="n">
-        <v>894.021521852133</v>
+        <v>1009.285811836432</v>
       </c>
       <c r="AD18" t="n">
-        <v>722347.7614662513</v>
+        <v>815478.5192970743</v>
       </c>
       <c r="AE18" t="n">
-        <v>988348.0749722499</v>
+        <v>1115773.686475444</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.407201583116844e-06</v>
+        <v>2.051539893756356e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.14120370370371</v>
       </c>
       <c r="AH18" t="n">
-        <v>894021.521852133</v>
+        <v>1009285.811836432</v>
       </c>
     </row>
     <row r="19">
@@ -15912,28 +15912,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>714.9263666406321</v>
+        <v>808.0571244714552</v>
       </c>
       <c r="AB19" t="n">
-        <v>978.1937951630052</v>
+        <v>1105.619406666199</v>
       </c>
       <c r="AC19" t="n">
-        <v>884.8363522562614</v>
+        <v>1000.10064224056</v>
       </c>
       <c r="AD19" t="n">
-        <v>714926.366640632</v>
+        <v>808057.1244714551</v>
       </c>
       <c r="AE19" t="n">
-        <v>978193.7951630052</v>
+        <v>1105619.406666199</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.409732133867016e-06</v>
+        <v>2.055229148998419e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH19" t="n">
-        <v>884836.3522562614</v>
+        <v>1000100.64224056</v>
       </c>
     </row>
     <row r="20">
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>714.8957972598133</v>
+        <v>808.0265550906364</v>
       </c>
       <c r="AB20" t="n">
-        <v>978.1519687875432</v>
+        <v>1105.577580290737</v>
       </c>
       <c r="AC20" t="n">
-        <v>884.7985177313697</v>
+        <v>1000.062807715668</v>
       </c>
       <c r="AD20" t="n">
-        <v>714895.7972598133</v>
+        <v>808026.5550906364</v>
       </c>
       <c r="AE20" t="n">
-        <v>978151.9687875431</v>
+        <v>1105577.580290737</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.411724269563959e-06</v>
+        <v>2.058133456316638e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>22.07175925925926</v>
       </c>
       <c r="AH20" t="n">
-        <v>884798.5177313697</v>
+        <v>1000062.807715668</v>
       </c>
     </row>
     <row r="21">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>717.1795700455921</v>
+        <v>810.3103278764153</v>
       </c>
       <c r="AB21" t="n">
-        <v>981.2767274659902</v>
+        <v>1108.702338969184</v>
       </c>
       <c r="AC21" t="n">
-        <v>887.6250538271723</v>
+        <v>1002.889343811471</v>
       </c>
       <c r="AD21" t="n">
-        <v>717179.570045592</v>
+        <v>810310.3278764152</v>
       </c>
       <c r="AE21" t="n">
-        <v>981276.7274659902</v>
+        <v>1108702.338969185</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.411562745047991e-06</v>
+        <v>2.057897971939485e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22.07175925925926</v>
       </c>
       <c r="AH21" t="n">
-        <v>887625.0538271724</v>
+        <v>1002889.343811471</v>
       </c>
     </row>
   </sheetData>
@@ -16421,28 +16421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>530.8302247951893</v>
+        <v>627.4045896941871</v>
       </c>
       <c r="AB2" t="n">
-        <v>726.3053321414966</v>
+        <v>858.4426387565893</v>
       </c>
       <c r="AC2" t="n">
-        <v>656.9877706178473</v>
+        <v>776.5140781454702</v>
       </c>
       <c r="AD2" t="n">
-        <v>530830.2247951893</v>
+        <v>627404.589694187</v>
       </c>
       <c r="AE2" t="n">
-        <v>726305.3321414966</v>
+        <v>858442.6387565893</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.500050614650282e-06</v>
+        <v>2.403433443075974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.85532407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>656987.7706178473</v>
+        <v>776514.0781454702</v>
       </c>
     </row>
     <row r="3">
@@ -16527,28 +16527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>447.336940849193</v>
+        <v>536.475943767147</v>
       </c>
       <c r="AB3" t="n">
-        <v>612.0661375828628</v>
+        <v>734.0300539104715</v>
       </c>
       <c r="AC3" t="n">
-        <v>553.651404452173</v>
+        <v>663.9752557829065</v>
       </c>
       <c r="AD3" t="n">
-        <v>447336.940849193</v>
+        <v>536475.943767147</v>
       </c>
       <c r="AE3" t="n">
-        <v>612066.1375828627</v>
+        <v>734030.0539104715</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.639810485061643e-06</v>
+        <v>2.627361584744007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.74305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>553651.404452173</v>
+        <v>663975.2557829065</v>
       </c>
     </row>
     <row r="4">
@@ -16633,28 +16633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.228047791213</v>
+        <v>536.3670507091671</v>
       </c>
       <c r="AB4" t="n">
-        <v>611.9171452969119</v>
+        <v>733.8810616245207</v>
       </c>
       <c r="AC4" t="n">
-        <v>553.5166317808812</v>
+        <v>663.8404831116148</v>
       </c>
       <c r="AD4" t="n">
-        <v>447228.047791213</v>
+        <v>536367.050709167</v>
       </c>
       <c r="AE4" t="n">
-        <v>611917.1452969119</v>
+        <v>733881.0616245207</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.645674084972862e-06</v>
+        <v>2.636756449147783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>553516.6317808812</v>
+        <v>663840.4831116148</v>
       </c>
     </row>
   </sheetData>
@@ -16930,28 +16930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1294.054968499457</v>
+        <v>1434.019586472996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1770.58309757698</v>
+        <v>1962.088862691526</v>
       </c>
       <c r="AC2" t="n">
-        <v>1601.601131773218</v>
+        <v>1774.829855445261</v>
       </c>
       <c r="AD2" t="n">
-        <v>1294054.968499457</v>
+        <v>1434019.586472996</v>
       </c>
       <c r="AE2" t="n">
-        <v>1770583.09757698</v>
+        <v>1962088.862691526</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.665421719972006e-07</v>
+        <v>1.435163568828788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.51851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1601601.131773218</v>
+        <v>1774829.855445261</v>
       </c>
     </row>
     <row r="3">
@@ -17036,28 +17036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>908.067530523193</v>
+        <v>1023.07657697565</v>
       </c>
       <c r="AB3" t="n">
-        <v>1242.458056373909</v>
+        <v>1399.818507571196</v>
       </c>
       <c r="AC3" t="n">
-        <v>1123.879603274416</v>
+        <v>1266.221793866215</v>
       </c>
       <c r="AD3" t="n">
-        <v>908067.530523193</v>
+        <v>1023076.57697565</v>
       </c>
       <c r="AE3" t="n">
-        <v>1242458.056373909</v>
+        <v>1399818.507571196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.22235370416997e-06</v>
+        <v>1.815003582122791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.49884259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1123879.603274416</v>
+        <v>1266221.793866215</v>
       </c>
     </row>
     <row r="4">
@@ -17142,28 +17142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>808.7959565672415</v>
+        <v>915.7423823983175</v>
       </c>
       <c r="AB4" t="n">
-        <v>1106.630309334626</v>
+        <v>1252.959127300022</v>
       </c>
       <c r="AC4" t="n">
-        <v>1001.015065777123</v>
+        <v>1133.378466729687</v>
       </c>
       <c r="AD4" t="n">
-        <v>808795.9565672416</v>
+        <v>915742.3823983176</v>
       </c>
       <c r="AE4" t="n">
-        <v>1106630.309334626</v>
+        <v>1252959.127300022</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.317289450026648e-06</v>
+        <v>1.955968278522492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.58912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1001015.065777123</v>
+        <v>1133378.466729687</v>
       </c>
     </row>
     <row r="5">
@@ -17248,28 +17248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>760.9961850988669</v>
+        <v>859.7947389625419</v>
       </c>
       <c r="AB5" t="n">
-        <v>1041.228553234509</v>
+        <v>1176.409093315365</v>
       </c>
       <c r="AC5" t="n">
-        <v>941.8551614872597</v>
+        <v>1064.134260549878</v>
       </c>
       <c r="AD5" t="n">
-        <v>760996.1850988669</v>
+        <v>859794.7389625419</v>
       </c>
       <c r="AE5" t="n">
-        <v>1041228.553234509</v>
+        <v>1176409.093315365</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.366324658381866e-06</v>
+        <v>2.028777874068563e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.70949074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>941855.1614872597</v>
+        <v>1064134.260549878</v>
       </c>
     </row>
     <row r="6">
@@ -17354,28 +17354,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>735.493289754409</v>
+        <v>834.1212514174919</v>
       </c>
       <c r="AB6" t="n">
-        <v>1006.334366715885</v>
+        <v>1141.281495021894</v>
       </c>
       <c r="AC6" t="n">
-        <v>910.291227155675</v>
+        <v>1032.359190935642</v>
       </c>
       <c r="AD6" t="n">
-        <v>735493.289754409</v>
+        <v>834121.2514174918</v>
       </c>
       <c r="AE6" t="n">
-        <v>1006334.366715885</v>
+        <v>1141281.495021894</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397279533062728e-06</v>
+        <v>2.074741009156437e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.18287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>910291.2271556749</v>
+        <v>1032359.190935642</v>
       </c>
     </row>
     <row r="7">
@@ -17460,28 +17460,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>710.121430705423</v>
+        <v>808.8346437145262</v>
       </c>
       <c r="AB7" t="n">
-        <v>971.6194698376394</v>
+        <v>1106.683242796298</v>
       </c>
       <c r="AC7" t="n">
-        <v>878.8894713128251</v>
+        <v>1001.062947343505</v>
       </c>
       <c r="AD7" t="n">
-        <v>710121.430705423</v>
+        <v>808834.6437145262</v>
       </c>
       <c r="AE7" t="n">
-        <v>971619.4698376394</v>
+        <v>1106683.242796298</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416535368307243e-06</v>
+        <v>2.103332905124301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.87037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>878889.4713128251</v>
+        <v>1001062.947343505</v>
       </c>
     </row>
     <row r="8">
@@ -17566,28 +17566,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>695.8525386035957</v>
+        <v>794.5657516126989</v>
       </c>
       <c r="AB8" t="n">
-        <v>952.0961421648277</v>
+        <v>1087.159915123486</v>
       </c>
       <c r="AC8" t="n">
-        <v>861.229422631944</v>
+        <v>983.4028986626237</v>
       </c>
       <c r="AD8" t="n">
-        <v>695852.5386035957</v>
+        <v>794565.7516126989</v>
       </c>
       <c r="AE8" t="n">
-        <v>952096.1421648277</v>
+        <v>1087159.915123486</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.430977244740629e-06</v>
+        <v>2.124776827100199e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.63888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>861229.4226319439</v>
+        <v>983402.8986626237</v>
       </c>
     </row>
     <row r="9">
@@ -17672,28 +17672,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>682.8046224190537</v>
+        <v>781.3472432275647</v>
       </c>
       <c r="AB9" t="n">
-        <v>934.2434076077013</v>
+        <v>1069.073768791513</v>
       </c>
       <c r="AC9" t="n">
-        <v>845.0805280044794</v>
+        <v>967.0428687525082</v>
       </c>
       <c r="AD9" t="n">
-        <v>682804.6224190537</v>
+        <v>781347.2432275647</v>
       </c>
       <c r="AE9" t="n">
-        <v>934243.4076077014</v>
+        <v>1069073.768791513</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.443124094298942e-06</v>
+        <v>2.142812994033415e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>845080.5280044795</v>
+        <v>967042.8687525082</v>
       </c>
     </row>
     <row r="10">
@@ -17778,28 +17778,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>671.7545961846432</v>
+        <v>762.2346858803246</v>
       </c>
       <c r="AB10" t="n">
-        <v>919.1242742210289</v>
+        <v>1042.923124642497</v>
       </c>
       <c r="AC10" t="n">
-        <v>831.4043434883941</v>
+        <v>943.3880053784155</v>
       </c>
       <c r="AD10" t="n">
-        <v>671754.5961846432</v>
+        <v>762234.6858803246</v>
       </c>
       <c r="AE10" t="n">
-        <v>919124.2742210289</v>
+        <v>1042923.124642497</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.452080296738251e-06</v>
+        <v>2.156111550297538e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.30902777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>831404.3434883942</v>
+        <v>943388.0053784156</v>
       </c>
     </row>
     <row r="11">
@@ -17884,28 +17884,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>662.5814668862913</v>
+        <v>753.0615565819726</v>
       </c>
       <c r="AB11" t="n">
-        <v>906.5731940251209</v>
+        <v>1030.372044446589</v>
       </c>
       <c r="AC11" t="n">
-        <v>820.0511207708317</v>
+        <v>932.0347826608531</v>
       </c>
       <c r="AD11" t="n">
-        <v>662581.4668862913</v>
+        <v>753061.5565819726</v>
       </c>
       <c r="AE11" t="n">
-        <v>906573.1940251208</v>
+        <v>1030372.044446589</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.458573543506751e-06</v>
+        <v>2.165753003589027e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.21064814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>820051.1207708317</v>
+        <v>932034.7826608531</v>
       </c>
     </row>
     <row r="12">
@@ -17990,28 +17990,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>652.8315955595743</v>
+        <v>743.3116852552556</v>
       </c>
       <c r="AB12" t="n">
-        <v>893.232989941941</v>
+        <v>1017.03184036341</v>
       </c>
       <c r="AC12" t="n">
-        <v>807.9840870422568</v>
+        <v>919.967748932278</v>
       </c>
       <c r="AD12" t="n">
-        <v>652831.5955595743</v>
+        <v>743311.6852552557</v>
       </c>
       <c r="AE12" t="n">
-        <v>893232.989941941</v>
+        <v>1017031.84036341</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.46389128870509e-06</v>
+        <v>2.17364902137085e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.12962962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>807984.0870422567</v>
+        <v>919967.748932278</v>
       </c>
     </row>
     <row r="13">
@@ -18096,28 +18096,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>643.9857323910538</v>
+        <v>734.4658220867352</v>
       </c>
       <c r="AB13" t="n">
-        <v>881.129689702831</v>
+        <v>1004.9285401243</v>
       </c>
       <c r="AC13" t="n">
-        <v>797.0359087908787</v>
+        <v>909.0195706809</v>
       </c>
       <c r="AD13" t="n">
-        <v>643985.7323910538</v>
+        <v>734465.8220867352</v>
       </c>
       <c r="AE13" t="n">
-        <v>881129.689702831</v>
+        <v>1004928.540124299</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.46881720004671e-06</v>
+        <v>2.180963227316117e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.05439814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>797035.9087908787</v>
+        <v>909019.5706809</v>
       </c>
     </row>
     <row r="14">
@@ -18202,28 +18202,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>642.2320100567293</v>
+        <v>732.7120997524106</v>
       </c>
       <c r="AB14" t="n">
-        <v>878.7301694362391</v>
+        <v>1002.529019857708</v>
       </c>
       <c r="AC14" t="n">
-        <v>794.8653953707826</v>
+        <v>906.8490572608039</v>
       </c>
       <c r="AD14" t="n">
-        <v>642232.0100567293</v>
+        <v>732712.0997524107</v>
       </c>
       <c r="AE14" t="n">
-        <v>878730.1694362391</v>
+        <v>1002529.019857708</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.470384535473589e-06</v>
+        <v>2.183290474662339e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH14" t="n">
-        <v>794865.3953707826</v>
+        <v>906849.0572608039</v>
       </c>
     </row>
   </sheetData>
@@ -18499,28 +18499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1495.792468321024</v>
+        <v>1654.433402923168</v>
       </c>
       <c r="AB2" t="n">
-        <v>2046.609244863208</v>
+        <v>2263.668770329949</v>
       </c>
       <c r="AC2" t="n">
-        <v>1851.283730967579</v>
+        <v>2047.627399968732</v>
       </c>
       <c r="AD2" t="n">
-        <v>1495792.468321024</v>
+        <v>1654433.402923168</v>
       </c>
       <c r="AE2" t="n">
-        <v>2046609.244863208</v>
+        <v>2263668.770329949</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.878952213786512e-07</v>
+        <v>1.305598850542406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.74652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1851283.730967579</v>
+        <v>2047627.399968732</v>
       </c>
     </row>
     <row r="3">
@@ -18605,28 +18605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1008.194612143792</v>
+        <v>1125.043105646254</v>
       </c>
       <c r="AB3" t="n">
-        <v>1379.456346742296</v>
+        <v>1539.333610544077</v>
       </c>
       <c r="AC3" t="n">
-        <v>1247.802969088353</v>
+        <v>1392.42177122204</v>
       </c>
       <c r="AD3" t="n">
-        <v>1008194.612143792</v>
+        <v>1125043.105646254</v>
       </c>
       <c r="AE3" t="n">
-        <v>1379456.346742296</v>
+        <v>1539333.610544077</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.157406439974901e-06</v>
+        <v>1.701899594971672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.42476851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1247802.969088353</v>
+        <v>1392421.771222041</v>
       </c>
     </row>
     <row r="4">
@@ -18711,28 +18711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>889.1819232907158</v>
+        <v>997.6719106715307</v>
       </c>
       <c r="AB4" t="n">
-        <v>1216.617935384244</v>
+        <v>1365.058722359123</v>
       </c>
       <c r="AC4" t="n">
-        <v>1100.505627165168</v>
+        <v>1234.779433769117</v>
       </c>
       <c r="AD4" t="n">
-        <v>889181.9232907158</v>
+        <v>997671.9106715306</v>
       </c>
       <c r="AE4" t="n">
-        <v>1216617.935384244</v>
+        <v>1365058.722359123</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.26051614509516e-06</v>
+        <v>1.853516485392311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.17939814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1100505.627165168</v>
+        <v>1234779.433769117</v>
       </c>
     </row>
     <row r="5">
@@ -18817,28 +18817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.6123065237964</v>
+        <v>933.8291286375362</v>
       </c>
       <c r="AB5" t="n">
-        <v>1140.585134165276</v>
+        <v>1277.70621143545</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.729289781832</v>
+        <v>1155.76372388798</v>
       </c>
       <c r="AD5" t="n">
-        <v>833612.3065237964</v>
+        <v>933829.1286375362</v>
       </c>
       <c r="AE5" t="n">
-        <v>1140585.134165276</v>
+        <v>1277706.21143545</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.314484203519806e-06</v>
+        <v>1.932873411016731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.14351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031729.289781831</v>
+        <v>1155763.72388798</v>
       </c>
     </row>
     <row r="6">
@@ -18923,28 +18923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>797.1867506970455</v>
+        <v>897.4888241568059</v>
       </c>
       <c r="AB6" t="n">
-        <v>1090.746081701007</v>
+        <v>1227.983803623831</v>
       </c>
       <c r="AC6" t="n">
-        <v>986.6468065352032</v>
+        <v>1110.786752892065</v>
       </c>
       <c r="AD6" t="n">
-        <v>797186.7506970455</v>
+        <v>897488.8241568059</v>
       </c>
       <c r="AE6" t="n">
-        <v>1090746.081701007</v>
+        <v>1227983.803623831</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347007637102951e-06</v>
+        <v>1.980697249324943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.56481481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>986646.8065352031</v>
+        <v>1110786.752892065</v>
       </c>
     </row>
     <row r="7">
@@ -19029,28 +19029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>777.5746107564755</v>
+        <v>877.7060920156435</v>
       </c>
       <c r="AB7" t="n">
-        <v>1063.91188660777</v>
+        <v>1200.916196755746</v>
       </c>
       <c r="AC7" t="n">
-        <v>962.3736293596348</v>
+        <v>1086.302440433845</v>
       </c>
       <c r="AD7" t="n">
-        <v>777574.6107564755</v>
+        <v>877706.0920156436</v>
       </c>
       <c r="AE7" t="n">
-        <v>1063911.88660777</v>
+        <v>1200916.196755746</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.368891026647091e-06</v>
+        <v>2.012875514898259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.18865740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>962373.6293596348</v>
+        <v>1086302.440433845</v>
       </c>
     </row>
     <row r="8">
@@ -19135,28 +19135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>752.5168272642964</v>
+        <v>852.7335598694852</v>
       </c>
       <c r="AB8" t="n">
-        <v>1029.626721762384</v>
+        <v>1166.747676563009</v>
       </c>
       <c r="AC8" t="n">
-        <v>931.3605925275609</v>
+        <v>1055.394915852483</v>
       </c>
       <c r="AD8" t="n">
-        <v>752516.8272642964</v>
+        <v>852733.5598694852</v>
       </c>
       <c r="AE8" t="n">
-        <v>1029626.721762383</v>
+        <v>1166747.676563009</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.386551305928327e-06</v>
+        <v>2.038843939746901e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.89351851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>931360.5925275609</v>
+        <v>1055394.915852483</v>
       </c>
     </row>
     <row r="9">
@@ -19241,28 +19241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>740.5949218903921</v>
+        <v>840.811654495581</v>
       </c>
       <c r="AB9" t="n">
-        <v>1013.314644872463</v>
+        <v>1150.435599673088</v>
       </c>
       <c r="AC9" t="n">
-        <v>916.6053173618704</v>
+        <v>1040.639640686793</v>
       </c>
       <c r="AD9" t="n">
-        <v>740594.9218903921</v>
+        <v>840811.6544955811</v>
       </c>
       <c r="AE9" t="n">
-        <v>1013314.644872463</v>
+        <v>1150435.599673088</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.39845279848742e-06</v>
+        <v>2.056344399970985e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.69675925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>916605.3173618704</v>
+        <v>1040639.640686793</v>
       </c>
     </row>
     <row r="10">
@@ -19347,28 +19347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>729.7851601381199</v>
+        <v>830.0018927433085</v>
       </c>
       <c r="AB10" t="n">
-        <v>998.5242519499727</v>
+        <v>1135.645206750598</v>
       </c>
       <c r="AC10" t="n">
-        <v>903.2264987814559</v>
+        <v>1027.260822106379</v>
       </c>
       <c r="AD10" t="n">
-        <v>729785.1601381198</v>
+        <v>830001.8927433086</v>
       </c>
       <c r="AE10" t="n">
-        <v>998524.2519499727</v>
+        <v>1135645.206750598</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.407118401364548e-06</v>
+        <v>2.06908667054889e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.55787037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>903226.4987814559</v>
+        <v>1027260.822106379</v>
       </c>
     </row>
     <row r="11">
@@ -19453,28 +19453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>719.6501099907806</v>
+        <v>811.5084259828739</v>
       </c>
       <c r="AB11" t="n">
-        <v>984.6570292115273</v>
+        <v>1110.341629654799</v>
       </c>
       <c r="AC11" t="n">
-        <v>890.6827443183985</v>
+        <v>1004.372182894809</v>
       </c>
       <c r="AD11" t="n">
-        <v>719650.1099907806</v>
+        <v>811508.4259828739</v>
       </c>
       <c r="AE11" t="n">
-        <v>984657.0292115273</v>
+        <v>1110341.629654799</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415454930714697e-06</v>
+        <v>2.081345057433963e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.42476851851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>890682.7443183985</v>
+        <v>1004372.182894809</v>
       </c>
     </row>
     <row r="12">
@@ -19559,28 +19559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>710.7612784674511</v>
+        <v>802.6195944595444</v>
       </c>
       <c r="AB12" t="n">
-        <v>972.4949377737374</v>
+        <v>1098.17953821701</v>
       </c>
       <c r="AC12" t="n">
-        <v>879.6813858178289</v>
+        <v>993.3708243942395</v>
       </c>
       <c r="AD12" t="n">
-        <v>710761.2784674511</v>
+        <v>802619.5944595444</v>
       </c>
       <c r="AE12" t="n">
-        <v>972494.9377737375</v>
+        <v>1098179.53821701</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.422420320369098e-06</v>
+        <v>2.09158726226557e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>879681.3858178288</v>
+        <v>993370.8243942396</v>
       </c>
     </row>
     <row r="13">
@@ -19665,28 +19665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>702.5115204223282</v>
+        <v>794.3698364144215</v>
       </c>
       <c r="AB13" t="n">
-        <v>961.2072548627619</v>
+        <v>1086.891855306034</v>
       </c>
       <c r="AC13" t="n">
-        <v>869.4709835215142</v>
+        <v>983.160422097925</v>
       </c>
       <c r="AD13" t="n">
-        <v>702511.5204223281</v>
+        <v>794369.8364144214</v>
       </c>
       <c r="AE13" t="n">
-        <v>961207.2548627619</v>
+        <v>1086891.855306034</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.426533739456342e-06</v>
+        <v>2.097635808425967e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.25115740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>869470.9835215142</v>
+        <v>983160.422097925</v>
       </c>
     </row>
     <row r="14">
@@ -19771,28 +19771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>693.6688744387723</v>
+        <v>785.5271904308654</v>
       </c>
       <c r="AB14" t="n">
-        <v>949.1083565180523</v>
+        <v>1074.792956961325</v>
       </c>
       <c r="AC14" t="n">
-        <v>858.5267870539135</v>
+        <v>972.2162256303241</v>
       </c>
       <c r="AD14" t="n">
-        <v>693668.8744387722</v>
+        <v>785527.1904308654</v>
       </c>
       <c r="AE14" t="n">
-        <v>949108.3565180524</v>
+        <v>1074792.956961324</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.430702004131416e-06</v>
+        <v>2.103765001868504e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.18171296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>858526.7870539135</v>
+        <v>972216.2256303241</v>
       </c>
     </row>
     <row r="15">
@@ -19877,28 +19877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>686.2172635180614</v>
+        <v>778.0755795101544</v>
       </c>
       <c r="AB15" t="n">
-        <v>938.9127337144633</v>
+        <v>1064.597334157735</v>
       </c>
       <c r="AC15" t="n">
-        <v>849.3042201810523</v>
+        <v>962.993658757463</v>
       </c>
       <c r="AD15" t="n">
-        <v>686217.2635180614</v>
+        <v>778075.5795101544</v>
       </c>
       <c r="AE15" t="n">
-        <v>938912.7337144633</v>
+        <v>1064597.334157735</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.435692952623939e-06</v>
+        <v>2.11110390454312e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.10648148148148</v>
       </c>
       <c r="AH15" t="n">
-        <v>849304.2201810523</v>
+        <v>962993.658757463</v>
       </c>
     </row>
     <row r="16">
@@ -19983,28 +19983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>678.7390802702547</v>
+        <v>770.5973962623478</v>
       </c>
       <c r="AB16" t="n">
-        <v>928.6807534806536</v>
+        <v>1054.365353923926</v>
       </c>
       <c r="AC16" t="n">
-        <v>840.048765780083</v>
+        <v>953.7382043564937</v>
       </c>
       <c r="AD16" t="n">
-        <v>678739.0802702548</v>
+        <v>770597.3962623478</v>
       </c>
       <c r="AE16" t="n">
-        <v>928680.7534806536</v>
+        <v>1054365.353923926</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.439641834947694e-06</v>
+        <v>2.116910508857102e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.04861111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>840048.765780083</v>
+        <v>953738.2043564938</v>
       </c>
     </row>
     <row r="17">
@@ -20089,28 +20089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>680.2293403866967</v>
+        <v>772.0876563787898</v>
       </c>
       <c r="AB17" t="n">
-        <v>930.7197931176057</v>
+        <v>1056.404393560878</v>
       </c>
       <c r="AC17" t="n">
-        <v>841.8932023358944</v>
+        <v>955.5826409123052</v>
       </c>
       <c r="AD17" t="n">
-        <v>680229.3403866966</v>
+        <v>772087.6563787898</v>
       </c>
       <c r="AE17" t="n">
-        <v>930719.7931176057</v>
+        <v>1056404.393560878</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.438599768778925e-06</v>
+        <v>2.115378210496468e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH17" t="n">
-        <v>841893.2023358945</v>
+        <v>955582.6409123052</v>
       </c>
     </row>
   </sheetData>
@@ -20386,28 +20386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1986.021308265608</v>
+        <v>2166.157866785949</v>
       </c>
       <c r="AB2" t="n">
-        <v>2717.361971045423</v>
+        <v>2963.83275747704</v>
       </c>
       <c r="AC2" t="n">
-        <v>2458.020758370327</v>
+        <v>2680.968718868832</v>
       </c>
       <c r="AD2" t="n">
-        <v>1986021.308265609</v>
+        <v>2166157.86678595</v>
       </c>
       <c r="AE2" t="n">
-        <v>2717361.971045423</v>
+        <v>2963832.75747704</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.495523677978314e-07</v>
+        <v>1.084431758035886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.87384259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>2458020.758370327</v>
+        <v>2680968.718868832</v>
       </c>
     </row>
     <row r="3">
@@ -20492,28 +20492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1215.243957576932</v>
+        <v>1343.803293501277</v>
       </c>
       <c r="AB3" t="n">
-        <v>1662.750395536367</v>
+        <v>1838.650950585673</v>
       </c>
       <c r="AC3" t="n">
-        <v>1504.059831471212</v>
+        <v>1663.172684424592</v>
       </c>
       <c r="AD3" t="n">
-        <v>1215243.957576932</v>
+        <v>1343803.293501277</v>
       </c>
       <c r="AE3" t="n">
-        <v>1662750.395536367</v>
+        <v>1838650.950585673</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045265308437614e-06</v>
+        <v>1.512261110418715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.31134259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1504059.831471212</v>
+        <v>1663172.684424592</v>
       </c>
     </row>
     <row r="4">
@@ -20598,28 +20598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1043.640894234982</v>
+        <v>1163.532894096426</v>
       </c>
       <c r="AB4" t="n">
-        <v>1427.955513679062</v>
+        <v>1591.997037151227</v>
       </c>
       <c r="AC4" t="n">
-        <v>1291.673443601682</v>
+        <v>1440.059074307388</v>
       </c>
       <c r="AD4" t="n">
-        <v>1043640.894234982</v>
+        <v>1163532.894096426</v>
       </c>
       <c r="AE4" t="n">
-        <v>1427955.513679062</v>
+        <v>1591997.037151227</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160564768644103e-06</v>
+        <v>1.679073199478829e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.40046296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1291673.443601682</v>
+        <v>1440059.074307388</v>
       </c>
     </row>
     <row r="5">
@@ -20704,28 +20704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>969.4141569877436</v>
+        <v>1072.398188996245</v>
       </c>
       <c r="AB5" t="n">
-        <v>1326.395217124857</v>
+        <v>1467.302513053727</v>
       </c>
       <c r="AC5" t="n">
-        <v>1199.805919209839</v>
+        <v>1327.26522057989</v>
       </c>
       <c r="AD5" t="n">
-        <v>969414.1569877436</v>
+        <v>1072398.188996245</v>
       </c>
       <c r="AE5" t="n">
-        <v>1326395.217124857</v>
+        <v>1467302.513053727</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.222873062796095e-06</v>
+        <v>1.769219126395154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1199805.919209839</v>
+        <v>1327265.22057989</v>
       </c>
     </row>
     <row r="6">
@@ -20810,28 +20810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>926.1937894195171</v>
+        <v>1029.092480573447</v>
       </c>
       <c r="AB6" t="n">
-        <v>1267.259203469963</v>
+        <v>1408.049732276636</v>
       </c>
       <c r="AC6" t="n">
-        <v>1146.313763700252</v>
+        <v>1273.667442038365</v>
       </c>
       <c r="AD6" t="n">
-        <v>926193.789419517</v>
+        <v>1029092.480573447</v>
       </c>
       <c r="AE6" t="n">
-        <v>1267259.203469963</v>
+        <v>1408049.732276636</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.258341675439964e-06</v>
+        <v>1.82053414001787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.34606481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>1146313.763700252</v>
+        <v>1273667.442038365</v>
       </c>
     </row>
     <row r="7">
@@ -20916,28 +20916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>890.7847514011747</v>
+        <v>1002.180007400311</v>
       </c>
       <c r="AB7" t="n">
-        <v>1218.81099551676</v>
+        <v>1371.226899186631</v>
       </c>
       <c r="AC7" t="n">
-        <v>1102.489384716616</v>
+        <v>1240.358928457298</v>
       </c>
       <c r="AD7" t="n">
-        <v>890784.7514011747</v>
+        <v>1002180.007400311</v>
       </c>
       <c r="AE7" t="n">
-        <v>1218810.99551676</v>
+        <v>1371226.899186631</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.28592249213766e-06</v>
+        <v>1.860437307327475e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.82523148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>1102489.384716616</v>
+        <v>1240358.928457298</v>
       </c>
     </row>
     <row r="8">
@@ -21022,28 +21022,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>872.8552386124123</v>
+        <v>975.6685889117704</v>
       </c>
       <c r="AB8" t="n">
-        <v>1194.279045124897</v>
+        <v>1334.952806809372</v>
       </c>
       <c r="AC8" t="n">
-        <v>1080.298729239343</v>
+        <v>1207.546784545517</v>
       </c>
       <c r="AD8" t="n">
-        <v>872855.2386124124</v>
+        <v>975668.5889117704</v>
       </c>
       <c r="AE8" t="n">
-        <v>1194279.045124897</v>
+        <v>1334952.806809372</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304397933649168e-06</v>
+        <v>1.88716706815483e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.48379629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>1080298.729239343</v>
+        <v>1207546.784545517</v>
       </c>
     </row>
     <row r="9">
@@ -21128,28 +21128,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>858.8382553273001</v>
+        <v>961.6516056266578</v>
       </c>
       <c r="AB9" t="n">
-        <v>1175.100390208547</v>
+        <v>1315.774151893022</v>
       </c>
       <c r="AC9" t="n">
-        <v>1062.950458230799</v>
+        <v>1190.198513536973</v>
       </c>
       <c r="AD9" t="n">
-        <v>858838.2553273001</v>
+        <v>961651.6056266578</v>
       </c>
       <c r="AE9" t="n">
-        <v>1175100.390208547</v>
+        <v>1315774.151893022</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.318479502251062e-06</v>
+        <v>1.907539894458775e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.23495370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>1062950.458230799</v>
+        <v>1190198.513536972</v>
       </c>
     </row>
     <row r="10">
@@ -21234,28 +21234,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>846.6341329700205</v>
+        <v>941.0361697701924</v>
       </c>
       <c r="AB10" t="n">
-        <v>1158.402171591437</v>
+        <v>1287.567203065365</v>
       </c>
       <c r="AC10" t="n">
-        <v>1047.845894162409</v>
+        <v>1164.683596316725</v>
       </c>
       <c r="AD10" t="n">
-        <v>846634.1329700204</v>
+        <v>941036.1697701924</v>
       </c>
       <c r="AE10" t="n">
-        <v>1158402.171591437</v>
+        <v>1287567.203065365</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.32996709768945e-06</v>
+        <v>1.924159831706729e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.0324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1047845.894162409</v>
+        <v>1164683.596316725</v>
       </c>
     </row>
     <row r="11">
@@ -21340,28 +21340,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>827.5001300521835</v>
+        <v>930.3987316975622</v>
       </c>
       <c r="AB11" t="n">
-        <v>1132.22218466662</v>
+        <v>1273.012591003745</v>
       </c>
       <c r="AC11" t="n">
-        <v>1024.164488445854</v>
+        <v>1151.51805600274</v>
       </c>
       <c r="AD11" t="n">
-        <v>827500.1300521835</v>
+        <v>930398.7316975622</v>
       </c>
       <c r="AE11" t="n">
-        <v>1132222.184666621</v>
+        <v>1273012.591003745</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.339072472875637e-06</v>
+        <v>1.937333238188979e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.87615740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1024164.488445854</v>
+        <v>1151518.05600274</v>
       </c>
     </row>
     <row r="12">
@@ -21446,28 +21446,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>817.2277220902026</v>
+        <v>920.1263237355812</v>
       </c>
       <c r="AB12" t="n">
-        <v>1118.167022906383</v>
+        <v>1258.957429243508</v>
       </c>
       <c r="AC12" t="n">
-        <v>1011.45073159747</v>
+        <v>1138.804299154357</v>
       </c>
       <c r="AD12" t="n">
-        <v>817227.7220902026</v>
+        <v>920126.3237355812</v>
       </c>
       <c r="AE12" t="n">
-        <v>1118167.022906383</v>
+        <v>1258957.429243508</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.348760168567918e-06</v>
+        <v>1.951349129969512e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.71412037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1011450.73159747</v>
+        <v>1138804.299154357</v>
       </c>
     </row>
     <row r="13">
@@ -21552,28 +21552,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>809.0366327094405</v>
+        <v>911.9352343548189</v>
       </c>
       <c r="AB13" t="n">
-        <v>1106.959613050265</v>
+        <v>1247.75001938739</v>
       </c>
       <c r="AC13" t="n">
-        <v>1001.312941208321</v>
+        <v>1128.666508765208</v>
       </c>
       <c r="AD13" t="n">
-        <v>809036.6327094404</v>
+        <v>911935.2343548189</v>
       </c>
       <c r="AE13" t="n">
-        <v>1106959.613050265</v>
+        <v>1247750.01938739</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.354848064767985e-06</v>
+        <v>1.960156930815202e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.60995370370371</v>
       </c>
       <c r="AH13" t="n">
-        <v>1001312.941208321</v>
+        <v>1128666.508765208</v>
       </c>
     </row>
     <row r="14">
@@ -21658,28 +21658,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>802.1270941623986</v>
+        <v>905.0256958077773</v>
       </c>
       <c r="AB14" t="n">
-        <v>1097.505677582875</v>
+        <v>1238.29608392</v>
       </c>
       <c r="AC14" t="n">
-        <v>992.7612760732577</v>
+        <v>1120.114843630144</v>
       </c>
       <c r="AD14" t="n">
-        <v>802127.0941623986</v>
+        <v>905025.6958077773</v>
       </c>
       <c r="AE14" t="n">
-        <v>1097505.677582875</v>
+        <v>1238296.08392</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.360194825778479e-06</v>
+        <v>1.967892477644895e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.52314814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>992761.2760732577</v>
+        <v>1120114.843630144</v>
       </c>
     </row>
     <row r="15">
@@ -21764,28 +21764,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>795.1535804970648</v>
+        <v>897.8815899418512</v>
       </c>
       <c r="AB15" t="n">
-        <v>1087.964208536255</v>
+        <v>1228.521203098533</v>
       </c>
       <c r="AC15" t="n">
-        <v>984.1304314409114</v>
+        <v>1111.272863715147</v>
       </c>
       <c r="AD15" t="n">
-        <v>795153.5804970649</v>
+        <v>897881.5899418512</v>
       </c>
       <c r="AE15" t="n">
-        <v>1087964.208536255</v>
+        <v>1228521.203098533</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.364165192865479e-06</v>
+        <v>1.973636695587737e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.45949074074074</v>
       </c>
       <c r="AH15" t="n">
-        <v>984130.4314409114</v>
+        <v>1111272.863715146</v>
       </c>
     </row>
     <row r="16">
@@ -21870,28 +21870,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>787.3210432407053</v>
+        <v>881.6377391863058</v>
       </c>
       <c r="AB16" t="n">
-        <v>1077.247385514948</v>
+        <v>1206.295649866678</v>
       </c>
       <c r="AC16" t="n">
-        <v>974.436406967602</v>
+        <v>1091.168486089979</v>
       </c>
       <c r="AD16" t="n">
-        <v>787321.0432407053</v>
+        <v>881637.7391863058</v>
       </c>
       <c r="AE16" t="n">
-        <v>1077247.385514948</v>
+        <v>1206295.649866678</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.369829583242933e-06</v>
+        <v>1.981831779852857e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.36689814814815</v>
       </c>
       <c r="AH16" t="n">
-        <v>974436.406967602</v>
+        <v>1091168.486089979</v>
       </c>
     </row>
     <row r="17">
@@ -21976,28 +21976,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>782.4332136483471</v>
+        <v>876.7499095939475</v>
       </c>
       <c r="AB17" t="n">
-        <v>1070.559641430861</v>
+        <v>1199.60790578259</v>
       </c>
       <c r="AC17" t="n">
-        <v>968.3869317925922</v>
+        <v>1085.11901091497</v>
       </c>
       <c r="AD17" t="n">
-        <v>782433.2136483471</v>
+        <v>876749.9095939475</v>
       </c>
       <c r="AE17" t="n">
-        <v>1070559.641430861</v>
+        <v>1199607.90578259</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.37147066830556e-06</v>
+        <v>1.984206056602564e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.33796296296297</v>
       </c>
       <c r="AH17" t="n">
-        <v>968386.9317925923</v>
+        <v>1085119.01091497</v>
       </c>
     </row>
     <row r="18">
@@ -22082,28 +22082,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>774.4792297189614</v>
+        <v>868.7959256645619</v>
       </c>
       <c r="AB18" t="n">
-        <v>1059.67664971367</v>
+        <v>1188.7249140654</v>
       </c>
       <c r="AC18" t="n">
-        <v>958.5425975305154</v>
+        <v>1075.274676652893</v>
       </c>
       <c r="AD18" t="n">
-        <v>774479.2297189614</v>
+        <v>868795.9256645619</v>
       </c>
       <c r="AE18" t="n">
-        <v>1059676.64971367</v>
+        <v>1188724.9140654</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.376499799949094e-06</v>
+        <v>1.991482065996831e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.25694444444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>958542.5975305154</v>
+        <v>1075274.676652893</v>
       </c>
     </row>
     <row r="19">
@@ -22188,28 +22188,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>770.6498628874974</v>
+        <v>864.9665588330979</v>
       </c>
       <c r="AB19" t="n">
-        <v>1054.437141075119</v>
+        <v>1183.485405426849</v>
       </c>
       <c r="AC19" t="n">
-        <v>953.8031402427315</v>
+        <v>1070.535219365109</v>
       </c>
       <c r="AD19" t="n">
-        <v>770649.8628874974</v>
+        <v>864966.5588330979</v>
       </c>
       <c r="AE19" t="n">
-        <v>1054437.141075119</v>
+        <v>1183485.405426849</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.378087946783894e-06</v>
+        <v>1.993779753173967e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22.22800925925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>953803.1402427315</v>
+        <v>1070535.219365109</v>
       </c>
     </row>
     <row r="20">
@@ -22294,28 +22294,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>764.5943770044204</v>
+        <v>858.9110729500208</v>
       </c>
       <c r="AB20" t="n">
-        <v>1046.151758140711</v>
+        <v>1175.20002249244</v>
       </c>
       <c r="AC20" t="n">
-        <v>946.3085026269749</v>
+        <v>1063.040581749352</v>
       </c>
       <c r="AD20" t="n">
-        <v>764594.3770044204</v>
+        <v>858911.0729500208</v>
       </c>
       <c r="AE20" t="n">
-        <v>1046151.758140711</v>
+        <v>1175200.02249244</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.381264240453494e-06</v>
+        <v>1.99837512752824e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>22.18171296296296</v>
       </c>
       <c r="AH20" t="n">
-        <v>946308.502626975</v>
+        <v>1063040.581749352</v>
       </c>
     </row>
     <row r="21">
@@ -22400,28 +22400,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>759.4633280788457</v>
+        <v>853.7800240244461</v>
       </c>
       <c r="AB21" t="n">
-        <v>1039.131230634837</v>
+        <v>1168.179494986567</v>
       </c>
       <c r="AC21" t="n">
-        <v>939.9580044128895</v>
+        <v>1056.690083535267</v>
       </c>
       <c r="AD21" t="n">
-        <v>759463.3280788457</v>
+        <v>853780.0240244461</v>
       </c>
       <c r="AE21" t="n">
-        <v>1039131.230634837</v>
+        <v>1168179.494986567</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.383275893110907e-06</v>
+        <v>2.001285531285946e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22.14699074074074</v>
       </c>
       <c r="AH21" t="n">
-        <v>939958.0044128895</v>
+        <v>1056690.083535267</v>
       </c>
     </row>
     <row r="22">
@@ -22506,28 +22506,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>753.4885875891433</v>
+        <v>847.8052835347438</v>
       </c>
       <c r="AB22" t="n">
-        <v>1030.956327109879</v>
+        <v>1160.004591461608</v>
       </c>
       <c r="AC22" t="n">
-        <v>932.563302206804</v>
+        <v>1049.295381329181</v>
       </c>
       <c r="AD22" t="n">
-        <v>753488.5875891433</v>
+        <v>847805.2835347438</v>
       </c>
       <c r="AE22" t="n">
-        <v>1030956.327109879</v>
+        <v>1160004.591461608</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.385869866274414e-06</v>
+        <v>2.005038420341937e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>22.10648148148148</v>
       </c>
       <c r="AH22" t="n">
-        <v>932563.302206804</v>
+        <v>1049295.381329181</v>
       </c>
     </row>
     <row r="23">
@@ -22612,28 +22612,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>750.2718368933205</v>
+        <v>844.588532838921</v>
       </c>
       <c r="AB23" t="n">
-        <v>1026.555026894829</v>
+        <v>1155.603291246559</v>
       </c>
       <c r="AC23" t="n">
-        <v>928.582055907015</v>
+        <v>1045.314135029392</v>
       </c>
       <c r="AD23" t="n">
-        <v>750271.8368933204</v>
+        <v>844588.5328389209</v>
       </c>
       <c r="AE23" t="n">
-        <v>1026555.026894829</v>
+        <v>1155603.291246559</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.385393422223974e-06</v>
+        <v>2.004349114188795e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>22.11226851851852</v>
       </c>
       <c r="AH23" t="n">
-        <v>928582.055907015</v>
+        <v>1045314.135029392</v>
       </c>
     </row>
     <row r="24">
@@ -22718,28 +22718,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>748.139148623009</v>
+        <v>842.4558445686093</v>
       </c>
       <c r="AB24" t="n">
-        <v>1023.636988715822</v>
+        <v>1152.685253067552</v>
       </c>
       <c r="AC24" t="n">
-        <v>925.9425111963207</v>
+        <v>1042.674590318698</v>
       </c>
       <c r="AD24" t="n">
-        <v>748139.148623009</v>
+        <v>842455.8445686094</v>
       </c>
       <c r="AE24" t="n">
-        <v>1023636.988715822</v>
+        <v>1152685.253067552</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.387934457159654e-06</v>
+        <v>2.008025413672214e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>22.07175925925926</v>
       </c>
       <c r="AH24" t="n">
-        <v>925942.5111963206</v>
+        <v>1042674.590318698</v>
       </c>
     </row>
     <row r="25">
@@ -22824,28 +22824,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>750.7357832725513</v>
+        <v>845.0524792181518</v>
       </c>
       <c r="AB25" t="n">
-        <v>1027.189818798762</v>
+        <v>1156.238083150492</v>
       </c>
       <c r="AC25" t="n">
-        <v>929.1562641625729</v>
+        <v>1045.88834328495</v>
       </c>
       <c r="AD25" t="n">
-        <v>750735.7832725514</v>
+        <v>845052.4792181518</v>
       </c>
       <c r="AE25" t="n">
-        <v>1027189.818798762</v>
+        <v>1156238.083150492</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.387722704248348e-06</v>
+        <v>2.007719055381929e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>22.07754629629629</v>
       </c>
       <c r="AH25" t="n">
-        <v>929156.2641625729</v>
+        <v>1045888.34328495</v>
       </c>
     </row>
   </sheetData>
@@ -23121,28 +23121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1107.684840239888</v>
+        <v>1237.047195770479</v>
       </c>
       <c r="AB2" t="n">
-        <v>1515.583266022464</v>
+        <v>1692.58254792376</v>
       </c>
       <c r="AC2" t="n">
-        <v>1370.938126247753</v>
+        <v>1531.044845104442</v>
       </c>
       <c r="AD2" t="n">
-        <v>1107684.840239888</v>
+        <v>1237047.195770479</v>
       </c>
       <c r="AE2" t="n">
-        <v>1515583.266022464</v>
+        <v>1692582.54792376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055219367125717e-06</v>
+        <v>1.584606688044241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1370938.126247753</v>
+        <v>1531044.845104442</v>
       </c>
     </row>
     <row r="3">
@@ -23227,28 +23227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.2215837258819</v>
+        <v>916.4671037574681</v>
       </c>
       <c r="AB3" t="n">
-        <v>1109.949159424196</v>
+        <v>1253.950723036062</v>
       </c>
       <c r="AC3" t="n">
-        <v>1004.017169472179</v>
+        <v>1134.275425960393</v>
       </c>
       <c r="AD3" t="n">
-        <v>811221.583725882</v>
+        <v>916467.1037574681</v>
       </c>
       <c r="AE3" t="n">
-        <v>1109949.159424196</v>
+        <v>1253950.723036062</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292550659248864e-06</v>
+        <v>1.941003437854571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1004017.169472179</v>
+        <v>1134275.425960393</v>
       </c>
     </row>
     <row r="4">
@@ -23333,28 +23333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.7814575966989</v>
+        <v>833.8459170490656</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.09689478766</v>
+        <v>1140.904770392119</v>
       </c>
       <c r="AC4" t="n">
-        <v>911.8855420220038</v>
+        <v>1032.018420375796</v>
       </c>
       <c r="AD4" t="n">
-        <v>736781.4575966989</v>
+        <v>833845.9170490656</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008096.89478766</v>
+        <v>1140904.770392118</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.378686340559967e-06</v>
+        <v>2.070352065198861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.03935185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>911885.5420220038</v>
+        <v>1032018.420375796</v>
       </c>
     </row>
     <row r="5">
@@ -23439,28 +23439,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>694.9886892767812</v>
+        <v>791.9678078745762</v>
       </c>
       <c r="AB5" t="n">
-        <v>950.9141854055375</v>
+        <v>1083.605293887797</v>
       </c>
       <c r="AC5" t="n">
-        <v>860.1602701668736</v>
+        <v>980.1875254887273</v>
       </c>
       <c r="AD5" t="n">
-        <v>694988.6892767812</v>
+        <v>791967.8078745762</v>
       </c>
       <c r="AE5" t="n">
-        <v>950914.1854055375</v>
+        <v>1083605.293887797</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.423415042091863e-06</v>
+        <v>2.137520468095065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.28703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>860160.2701668736</v>
+        <v>980187.5254887273</v>
       </c>
     </row>
     <row r="6">
@@ -23545,28 +23545,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>664.384845539334</v>
+        <v>761.4492154831497</v>
       </c>
       <c r="AB6" t="n">
-        <v>909.0406562576652</v>
+        <v>1041.848409392574</v>
       </c>
       <c r="AC6" t="n">
-        <v>822.2830918710071</v>
+        <v>942.4158594435728</v>
       </c>
       <c r="AD6" t="n">
-        <v>664384.845539334</v>
+        <v>761449.2154831497</v>
       </c>
       <c r="AE6" t="n">
-        <v>909040.6562576653</v>
+        <v>1041848.409392574</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.451764219119121e-06</v>
+        <v>2.180091991057447e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.82986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>822283.0918710071</v>
+        <v>942415.8594435728</v>
       </c>
     </row>
     <row r="7">
@@ -23651,28 +23651,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>647.9476766452283</v>
+        <v>745.012046589044</v>
       </c>
       <c r="AB7" t="n">
-        <v>886.5505966200373</v>
+        <v>1019.358349754947</v>
       </c>
       <c r="AC7" t="n">
-        <v>801.9394519601972</v>
+        <v>922.0722195327631</v>
       </c>
       <c r="AD7" t="n">
-        <v>647947.6766452283</v>
+        <v>745012.0465890439</v>
       </c>
       <c r="AE7" t="n">
-        <v>886550.5966200372</v>
+        <v>1019358.349754947</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46928916491779e-06</v>
+        <v>2.206408932525102e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.55787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>801939.4519601972</v>
+        <v>922072.2195327631</v>
       </c>
     </row>
     <row r="8">
@@ -23757,28 +23757,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>633.2611099758485</v>
+        <v>722.2297601950162</v>
       </c>
       <c r="AB8" t="n">
-        <v>866.4557881773983</v>
+        <v>988.1866204270972</v>
       </c>
       <c r="AC8" t="n">
-        <v>783.7624638320832</v>
+        <v>893.8754763021669</v>
       </c>
       <c r="AD8" t="n">
-        <v>633261.1099758485</v>
+        <v>722229.7601950162</v>
       </c>
       <c r="AE8" t="n">
-        <v>866455.7881773983</v>
+        <v>988186.6204270972</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.483377846834367e-06</v>
+        <v>2.227565689391256e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH8" t="n">
-        <v>783762.4638320832</v>
+        <v>893875.4763021669</v>
       </c>
     </row>
     <row r="9">
@@ -23863,28 +23863,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>621.5226325247805</v>
+        <v>710.4912827439483</v>
       </c>
       <c r="AB9" t="n">
-        <v>850.3946854637712</v>
+        <v>972.1255177134701</v>
       </c>
       <c r="AC9" t="n">
-        <v>769.2342102195455</v>
+        <v>879.3472226896291</v>
       </c>
       <c r="AD9" t="n">
-        <v>621522.6325247806</v>
+        <v>710491.2827439483</v>
       </c>
       <c r="AE9" t="n">
-        <v>850394.6854637712</v>
+        <v>972125.5177134702</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.492655759316015e-06</v>
+        <v>2.241498187815308e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.20486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>769234.2102195455</v>
+        <v>879347.2226896291</v>
       </c>
     </row>
     <row r="10">
@@ -23969,28 +23969,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>609.059777875839</v>
+        <v>698.0284280950067</v>
       </c>
       <c r="AB10" t="n">
-        <v>833.3424579107468</v>
+        <v>955.0732901604457</v>
       </c>
       <c r="AC10" t="n">
-        <v>753.8094233312299</v>
+        <v>863.9224358013137</v>
       </c>
       <c r="AD10" t="n">
-        <v>609059.777875839</v>
+        <v>698028.4280950067</v>
       </c>
       <c r="AE10" t="n">
-        <v>833342.4579107468</v>
+        <v>955073.2901604457</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.50073097943893e-06</v>
+        <v>2.253624621628835e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>753809.4233312299</v>
+        <v>863922.4358013137</v>
       </c>
     </row>
     <row r="11">
@@ -24075,28 +24075,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>606.4722798108214</v>
+        <v>695.4409300299891</v>
       </c>
       <c r="AB11" t="n">
-        <v>829.8021289058316</v>
+        <v>951.5329611555305</v>
       </c>
       <c r="AC11" t="n">
-        <v>750.6069783576611</v>
+        <v>860.7199908277444</v>
       </c>
       <c r="AD11" t="n">
-        <v>606472.2798108214</v>
+        <v>695440.9300299891</v>
       </c>
       <c r="AE11" t="n">
-        <v>829802.1289058316</v>
+        <v>951532.9611555305</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.502449111379977e-06</v>
+        <v>2.256204713929586e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>750606.978357661</v>
+        <v>860719.9908277444</v>
       </c>
     </row>
     <row r="12">
@@ -24181,28 +24181,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>609.099716009942</v>
+        <v>698.0683662291096</v>
       </c>
       <c r="AB12" t="n">
-        <v>833.3971030277726</v>
+        <v>955.1279352774714</v>
       </c>
       <c r="AC12" t="n">
-        <v>753.8588531949819</v>
+        <v>863.9718656650654</v>
       </c>
       <c r="AD12" t="n">
-        <v>609099.716009942</v>
+        <v>698068.3662291097</v>
       </c>
       <c r="AE12" t="n">
-        <v>833397.1030277726</v>
+        <v>955127.9352774713</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.502162756056469e-06</v>
+        <v>2.255774698546127e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.06597222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>753858.8531949818</v>
+        <v>863971.8656650654</v>
       </c>
     </row>
   </sheetData>
@@ -24478,28 +24478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>854.5988375851911</v>
+        <v>972.386376611826</v>
       </c>
       <c r="AB2" t="n">
-        <v>1169.299831823883</v>
+        <v>1330.461939139601</v>
       </c>
       <c r="AC2" t="n">
-        <v>1057.703496997232</v>
+        <v>1203.484518983176</v>
       </c>
       <c r="AD2" t="n">
-        <v>854598.837585191</v>
+        <v>972386.376611826</v>
       </c>
       <c r="AE2" t="n">
-        <v>1169299.831823883</v>
+        <v>1330461.939139601</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.210390303087936e-06</v>
+        <v>1.85643219223909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.52430555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1057703.496997232</v>
+        <v>1203484.518983176</v>
       </c>
     </row>
     <row r="3">
@@ -24584,28 +24584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>670.6203755583293</v>
+        <v>772.5209384002111</v>
       </c>
       <c r="AB3" t="n">
-        <v>917.5723835218236</v>
+        <v>1056.99722913764</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.0005630594287</v>
+        <v>956.1188970936713</v>
       </c>
       <c r="AD3" t="n">
-        <v>670620.3755583293</v>
+        <v>772520.938400211</v>
       </c>
       <c r="AE3" t="n">
-        <v>917572.3835218236</v>
+        <v>1056997.22913764</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.412867738579111e-06</v>
+        <v>2.166981300645589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.43287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>830000.5630594287</v>
+        <v>956118.8970936713</v>
       </c>
     </row>
     <row r="4">
@@ -24690,28 +24690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>614.8289498615235</v>
+        <v>708.9566615658965</v>
       </c>
       <c r="AB4" t="n">
-        <v>841.2360935394652</v>
+        <v>970.0257813149514</v>
       </c>
       <c r="AC4" t="n">
-        <v>760.9497014543307</v>
+        <v>877.4478821859865</v>
       </c>
       <c r="AD4" t="n">
-        <v>614828.9498615235</v>
+        <v>708956.6615658965</v>
       </c>
       <c r="AE4" t="n">
-        <v>841236.0935394652</v>
+        <v>970025.7813149514</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.486544707592547e-06</v>
+        <v>2.279983112337406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.22337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>760949.7014543307</v>
+        <v>877447.8821859865</v>
       </c>
     </row>
     <row r="5">
@@ -24796,28 +24796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>580.732181005763</v>
+        <v>674.9451440561566</v>
       </c>
       <c r="AB5" t="n">
-        <v>794.5833901477359</v>
+        <v>923.4897225758714</v>
       </c>
       <c r="AC5" t="n">
-        <v>718.7494665968276</v>
+        <v>835.3531595791958</v>
       </c>
       <c r="AD5" t="n">
-        <v>580732.181005763</v>
+        <v>674945.1440561565</v>
       </c>
       <c r="AE5" t="n">
-        <v>794583.3901477359</v>
+        <v>923489.7225758714</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.521981241676742e-06</v>
+        <v>2.334333781280677e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.68518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>718749.4665968276</v>
+        <v>835353.1595791958</v>
       </c>
     </row>
     <row r="6">
@@ -24902,28 +24902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>560.0598672624307</v>
+        <v>646.4147278292949</v>
       </c>
       <c r="AB6" t="n">
-        <v>766.2986184859921</v>
+        <v>884.4531484211481</v>
       </c>
       <c r="AC6" t="n">
-        <v>693.1641538445542</v>
+        <v>800.0421812736232</v>
       </c>
       <c r="AD6" t="n">
-        <v>560059.8672624306</v>
+        <v>646414.7278292949</v>
       </c>
       <c r="AE6" t="n">
-        <v>766298.6184859921</v>
+        <v>884453.1484211481</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.546023199986389e-06</v>
+        <v>2.371208056674848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.33217592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>693164.1538445542</v>
+        <v>800042.1812736233</v>
       </c>
     </row>
     <row r="7">
@@ -25008,28 +25008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>546.5535165440473</v>
+        <v>632.9083771109115</v>
       </c>
       <c r="AB7" t="n">
-        <v>747.8186335749598</v>
+        <v>865.9731635101158</v>
       </c>
       <c r="AC7" t="n">
-        <v>676.4478727566091</v>
+        <v>783.3259001856782</v>
       </c>
       <c r="AD7" t="n">
-        <v>546553.5165440473</v>
+        <v>632908.3771109115</v>
       </c>
       <c r="AE7" t="n">
-        <v>747818.6335749598</v>
+        <v>865973.1635101158</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.558431952662336e-06</v>
+        <v>2.39023994074926e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.15277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>676447.8727566091</v>
+        <v>783325.9001856782</v>
       </c>
     </row>
     <row r="8">
@@ -25114,28 +25114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>548.6823551992926</v>
+        <v>635.0372157661569</v>
       </c>
       <c r="AB8" t="n">
-        <v>750.7314045407996</v>
+        <v>868.8859344759558</v>
       </c>
       <c r="AC8" t="n">
-        <v>679.0826529495688</v>
+        <v>785.960680378638</v>
       </c>
       <c r="AD8" t="n">
-        <v>548682.3551992927</v>
+        <v>635037.2157661569</v>
       </c>
       <c r="AE8" t="n">
-        <v>750731.4045407997</v>
+        <v>868885.9344759558</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.559028527310219e-06</v>
+        <v>2.391154935175915e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.14699074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>679082.6529495688</v>
+        <v>785960.680378638</v>
       </c>
     </row>
   </sheetData>
@@ -47144,28 +47144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>695.1744333113825</v>
+        <v>802.4447337180906</v>
       </c>
       <c r="AB2" t="n">
-        <v>951.1683285881271</v>
+        <v>1097.940286036241</v>
       </c>
       <c r="AC2" t="n">
-        <v>860.3901582808093</v>
+        <v>993.1544061058112</v>
       </c>
       <c r="AD2" t="n">
-        <v>695174.4333113824</v>
+        <v>802444.7337180906</v>
       </c>
       <c r="AE2" t="n">
-        <v>951168.3285881272</v>
+        <v>1097940.286036241</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336824853620126e-06</v>
+        <v>2.088762464422533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.71296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>860390.1582808093</v>
+        <v>993154.4061058111</v>
       </c>
     </row>
     <row r="3">
@@ -47250,28 +47250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>566.9481642251804</v>
+        <v>658.9672853062774</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.7234902806408</v>
+        <v>901.6281113409076</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.6895291030123</v>
+        <v>815.5779898375328</v>
       </c>
       <c r="AD3" t="n">
-        <v>566948.1642251804</v>
+        <v>658967.2853062775</v>
       </c>
       <c r="AE3" t="n">
-        <v>775723.4902806408</v>
+        <v>901628.1113409076</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512706620438396e-06</v>
+        <v>2.363574255743935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>701689.5291030123</v>
+        <v>815577.9898375327</v>
       </c>
     </row>
     <row r="4">
@@ -47356,28 +47356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.3324651894983</v>
+        <v>613.2662454160235</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.3100784374087</v>
+        <v>839.0979323754779</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.2327656883244</v>
+        <v>759.0156033909061</v>
       </c>
       <c r="AD4" t="n">
-        <v>521332.4651894983</v>
+        <v>613266.2454160235</v>
       </c>
       <c r="AE4" t="n">
-        <v>713310.0784374087</v>
+        <v>839097.9323754779</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.57491322428149e-06</v>
+        <v>2.460770847200768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.67361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>645232.7656883245</v>
+        <v>759015.6033909061</v>
       </c>
     </row>
     <row r="5">
@@ -47462,28 +47462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>501.162263157111</v>
+        <v>585.4278728020959</v>
       </c>
       <c r="AB5" t="n">
-        <v>685.712318170185</v>
+        <v>801.0082428227803</v>
       </c>
       <c r="AC5" t="n">
-        <v>620.2688969273048</v>
+        <v>724.5611403499031</v>
       </c>
       <c r="AD5" t="n">
-        <v>501162.263157111</v>
+        <v>585427.8728020958</v>
       </c>
       <c r="AE5" t="n">
-        <v>685712.318170185</v>
+        <v>801008.2428227803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.600647503847531e-06</v>
+        <v>2.500980151404636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>620268.8969273048</v>
+        <v>724561.1403499031</v>
       </c>
     </row>
     <row r="6">
@@ -47568,28 +47568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>503.131623788878</v>
+        <v>587.3972334338629</v>
       </c>
       <c r="AB6" t="n">
-        <v>688.4068842686278</v>
+        <v>803.7028089212231</v>
       </c>
       <c r="AC6" t="n">
-        <v>622.7062974191596</v>
+        <v>726.9985408417577</v>
       </c>
       <c r="AD6" t="n">
-        <v>503131.623788878</v>
+        <v>587397.2334338629</v>
       </c>
       <c r="AE6" t="n">
-        <v>688406.8842686277</v>
+        <v>803702.808921223</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.601573197357101e-06</v>
+        <v>2.502426529253696e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.29745370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>622706.2974191596</v>
+        <v>726998.5408417578</v>
       </c>
     </row>
   </sheetData>
@@ -47865,28 +47865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.234230394351</v>
+        <v>533.8563787543488</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.9796516721914</v>
+        <v>730.4458494929091</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.6229971968353</v>
+        <v>660.7331228044936</v>
       </c>
       <c r="AD2" t="n">
-        <v>439234.2303943509</v>
+        <v>533856.3787543488</v>
       </c>
       <c r="AE2" t="n">
-        <v>600979.6516721913</v>
+        <v>730445.8494929092</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607235175762072e-06</v>
+        <v>2.619272806211201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.84837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>543622.9971968352</v>
+        <v>660733.1228044936</v>
       </c>
     </row>
     <row r="3">
@@ -47971,28 +47971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.6716399718085</v>
+        <v>498.8810472311712</v>
       </c>
       <c r="AB3" t="n">
-        <v>572.8450082986031</v>
+        <v>682.5910579001703</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.1734846996025</v>
+        <v>617.4455253567442</v>
       </c>
       <c r="AD3" t="n">
-        <v>418671.6399718085</v>
+        <v>498881.0472311712</v>
       </c>
       <c r="AE3" t="n">
-        <v>572845.0082986031</v>
+        <v>682591.0579001703</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.660423300474084e-06</v>
+        <v>2.705952223618479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.08449074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>518173.4846996025</v>
+        <v>617445.5253567442</v>
       </c>
     </row>
   </sheetData>
@@ -48268,28 +48268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1392.876916691615</v>
+        <v>1542.141097343025</v>
       </c>
       <c r="AB2" t="n">
-        <v>1905.795646810151</v>
+        <v>2110.02548384831</v>
       </c>
       <c r="AC2" t="n">
-        <v>1723.90918507958</v>
+        <v>1908.647613109193</v>
       </c>
       <c r="AD2" t="n">
-        <v>1392876.916691615</v>
+        <v>1542141.097343025</v>
       </c>
       <c r="AE2" t="n">
-        <v>1905795.646810151</v>
+        <v>2110025.48384831</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.260619219821044e-07</v>
+        <v>1.368146107563383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.61226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1723909.18507958</v>
+        <v>1908647.613109193</v>
       </c>
     </row>
     <row r="3">
@@ -48374,28 +48374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>952.9657885048305</v>
+        <v>1069.041186599356</v>
       </c>
       <c r="AB3" t="n">
-        <v>1303.889833715731</v>
+        <v>1462.70931427381</v>
       </c>
       <c r="AC3" t="n">
-        <v>1179.448418006776</v>
+        <v>1323.110390244933</v>
       </c>
       <c r="AD3" t="n">
-        <v>952965.7885048304</v>
+        <v>1069041.186599356</v>
       </c>
       <c r="AE3" t="n">
-        <v>1303889.833715731</v>
+        <v>1462709.31427381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.189677706568349e-06</v>
+        <v>1.757607007545087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.94444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>1179448.418006776</v>
+        <v>1323110.390244933</v>
       </c>
     </row>
     <row r="4">
@@ -48480,28 +48480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>845.5791878187725</v>
+        <v>953.3573902740762</v>
       </c>
       <c r="AB4" t="n">
-        <v>1156.958749094605</v>
+        <v>1304.425640532664</v>
       </c>
       <c r="AC4" t="n">
-        <v>1046.540229882818</v>
+        <v>1179.933088173111</v>
       </c>
       <c r="AD4" t="n">
-        <v>845579.1878187725</v>
+        <v>953357.3902740763</v>
       </c>
       <c r="AE4" t="n">
-        <v>1156958.749094605</v>
+        <v>1304425.640532664</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.287612715424932e-06</v>
+        <v>1.902294309744636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.89583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1046540.229882818</v>
+        <v>1179933.088173111</v>
       </c>
     </row>
     <row r="5">
@@ -48586,28 +48586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>793.4511380447423</v>
+        <v>901.1439996454747</v>
       </c>
       <c r="AB5" t="n">
-        <v>1085.634851666527</v>
+        <v>1232.984975982389</v>
       </c>
       <c r="AC5" t="n">
-        <v>982.0233851215572</v>
+        <v>1115.310620379912</v>
       </c>
       <c r="AD5" t="n">
-        <v>793451.1380447423</v>
+        <v>901143.9996454746</v>
       </c>
       <c r="AE5" t="n">
-        <v>1085634.851666527</v>
+        <v>1232984.975982389</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339294481976512e-06</v>
+        <v>1.978647959604466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.93518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>982023.3851215573</v>
+        <v>1115310.620379912</v>
       </c>
     </row>
     <row r="6">
@@ -48692,28 +48692,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>766.1217637963528</v>
+        <v>865.5175192664149</v>
       </c>
       <c r="AB6" t="n">
-        <v>1048.241596132982</v>
+        <v>1184.239253798372</v>
       </c>
       <c r="AC6" t="n">
-        <v>948.1988894143698</v>
+        <v>1071.217121506087</v>
       </c>
       <c r="AD6" t="n">
-        <v>766121.7637963528</v>
+        <v>865517.5192664149</v>
       </c>
       <c r="AE6" t="n">
-        <v>1048241.596132982</v>
+        <v>1184239.253798372</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.372087199874191e-06</v>
+        <v>2.027095291562686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.36226851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>948198.8894143698</v>
+        <v>1071217.121506087</v>
       </c>
     </row>
     <row r="7">
@@ -48798,28 +48798,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>748.3132497774563</v>
+        <v>839.5824913174406</v>
       </c>
       <c r="AB7" t="n">
-        <v>1023.875201596138</v>
+        <v>1148.753804385904</v>
       </c>
       <c r="AC7" t="n">
-        <v>926.1579893736731</v>
+        <v>1039.118353581404</v>
       </c>
       <c r="AD7" t="n">
-        <v>748313.2497774564</v>
+        <v>839582.4913174406</v>
       </c>
       <c r="AE7" t="n">
-        <v>1023875.201596139</v>
+        <v>1148753.804385904</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391696358887331e-06</v>
+        <v>2.056065486686352e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.0324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>926157.9893736731</v>
+        <v>1039118.353581404</v>
       </c>
     </row>
     <row r="8">
@@ -48904,28 +48904,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>724.237118939779</v>
+        <v>823.7181257558617</v>
       </c>
       <c r="AB8" t="n">
-        <v>990.9331772200994</v>
+        <v>1127.047479538139</v>
       </c>
       <c r="AC8" t="n">
-        <v>896.3599055696617</v>
+        <v>1019.483649912091</v>
       </c>
       <c r="AD8" t="n">
-        <v>724237.118939779</v>
+        <v>823718.1257558618</v>
       </c>
       <c r="AE8" t="n">
-        <v>990933.1772200994</v>
+        <v>1127047.479538139</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.408591255777182e-06</v>
+        <v>2.081025683049962e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>896359.9055696616</v>
+        <v>1019483.649912091</v>
       </c>
     </row>
     <row r="9">
@@ -49010,28 +49010,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>711.6498851960019</v>
+        <v>811.1308920120845</v>
       </c>
       <c r="AB9" t="n">
-        <v>973.7107687023026</v>
+        <v>1109.825071020342</v>
       </c>
       <c r="AC9" t="n">
-        <v>880.7811795490012</v>
+        <v>1003.90492389143</v>
       </c>
       <c r="AD9" t="n">
-        <v>711649.885196002</v>
+        <v>811130.8920120845</v>
       </c>
       <c r="AE9" t="n">
-        <v>973710.7687023026</v>
+        <v>1109825.071020342</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.420057628420459e-06</v>
+        <v>2.097965881893461e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.57523148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>880781.1795490012</v>
+        <v>1003904.92389143</v>
       </c>
     </row>
     <row r="10">
@@ -49116,28 +49116,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>701.8501350032808</v>
+        <v>793.0340356886934</v>
       </c>
       <c r="AB10" t="n">
-        <v>960.3023181541557</v>
+        <v>1085.064153821724</v>
       </c>
       <c r="AC10" t="n">
-        <v>868.6524127022909</v>
+        <v>981.5071538780825</v>
       </c>
       <c r="AD10" t="n">
-        <v>701850.1350032808</v>
+        <v>793034.0356886934</v>
       </c>
       <c r="AE10" t="n">
-        <v>960302.3181541557</v>
+        <v>1085064.153821724</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.428975918254118e-06</v>
+        <v>2.111141592105071e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.43055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>868652.4127022909</v>
+        <v>981507.1538780825</v>
       </c>
     </row>
     <row r="11">
@@ -49222,28 +49222,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>690.3350635652749</v>
+        <v>781.5189642506875</v>
       </c>
       <c r="AB11" t="n">
-        <v>944.5468894035777</v>
+        <v>1069.308725071146</v>
       </c>
       <c r="AC11" t="n">
-        <v>854.4006599587849</v>
+        <v>967.2554011345766</v>
       </c>
       <c r="AD11" t="n">
-        <v>690335.0635652749</v>
+        <v>781518.9642506875</v>
       </c>
       <c r="AE11" t="n">
-        <v>944546.8894035777</v>
+        <v>1069308.725071146</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.437783421878664e-06</v>
+        <v>2.124153628897904e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.29745370370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>854400.6599587849</v>
+        <v>967255.4011345765</v>
       </c>
     </row>
     <row r="12">
@@ -49328,28 +49328,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>681.6145002006234</v>
+        <v>772.798400886036</v>
       </c>
       <c r="AB12" t="n">
-        <v>932.6150298839584</v>
+        <v>1057.376865551527</v>
       </c>
       <c r="AC12" t="n">
-        <v>843.6075603652481</v>
+        <v>956.4623015410396</v>
       </c>
       <c r="AD12" t="n">
-        <v>681614.5002006234</v>
+        <v>772798.400886036</v>
       </c>
       <c r="AE12" t="n">
-        <v>932615.0298839584</v>
+        <v>1057376.865551527</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.44177172540676e-06</v>
+        <v>2.130045871973904e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>843607.5603652481</v>
+        <v>956462.3015410396</v>
       </c>
     </row>
     <row r="13">
@@ -49434,28 +49434,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>672.2273191206262</v>
+        <v>763.4112198060387</v>
       </c>
       <c r="AB13" t="n">
-        <v>919.7710745971051</v>
+        <v>1044.532910264673</v>
       </c>
       <c r="AC13" t="n">
-        <v>831.9894141443674</v>
+        <v>944.8441553201592</v>
       </c>
       <c r="AD13" t="n">
-        <v>672227.3191206262</v>
+        <v>763411.2198060388</v>
       </c>
       <c r="AE13" t="n">
-        <v>919771.0745971052</v>
+        <v>1044532.910264673</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.449028222103713e-06</v>
+        <v>2.140766480903848e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.12384259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>831989.4141443674</v>
+        <v>944844.1553201592</v>
       </c>
     </row>
     <row r="14">
@@ -49540,28 +49540,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>664.184672415314</v>
+        <v>755.3685731007266</v>
       </c>
       <c r="AB14" t="n">
-        <v>908.7667705583658</v>
+        <v>1033.528606225934</v>
       </c>
       <c r="AC14" t="n">
-        <v>822.0353454384477</v>
+        <v>934.8900866142395</v>
       </c>
       <c r="AD14" t="n">
-        <v>664184.672415314</v>
+        <v>755368.5731007266</v>
       </c>
       <c r="AE14" t="n">
-        <v>908766.7705583659</v>
+        <v>1033528.606225934</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.453071918736366e-06</v>
+        <v>2.146740560689237e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>822035.3454384478</v>
+        <v>934890.0866142395</v>
       </c>
     </row>
     <row r="15">
@@ -49646,28 +49646,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>661.012754986751</v>
+        <v>752.1966556721636</v>
       </c>
       <c r="AB15" t="n">
-        <v>904.4268131974852</v>
+        <v>1029.188648865053</v>
       </c>
       <c r="AC15" t="n">
-        <v>818.1095875169212</v>
+        <v>930.9643286927129</v>
       </c>
       <c r="AD15" t="n">
-        <v>661012.754986751</v>
+        <v>752196.6556721636</v>
       </c>
       <c r="AE15" t="n">
-        <v>904426.8131974852</v>
+        <v>1029188.648865053</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.453847422200162e-06</v>
+        <v>2.147886274620681e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.04861111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>818109.5875169212</v>
+        <v>930964.3286927129</v>
       </c>
     </row>
     <row r="16">
@@ -49752,28 +49752,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>663.3299652089588</v>
+        <v>754.5138658943714</v>
       </c>
       <c r="AB16" t="n">
-        <v>907.5973224516101</v>
+        <v>1032.359158119178</v>
       </c>
       <c r="AC16" t="n">
-        <v>820.9775078176701</v>
+        <v>933.8322489934617</v>
       </c>
       <c r="AD16" t="n">
-        <v>663329.9652089588</v>
+        <v>754513.8658943714</v>
       </c>
       <c r="AE16" t="n">
-        <v>907597.3224516101</v>
+        <v>1032359.158119178</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.453570456677378e-06</v>
+        <v>2.147477091073737e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.05439814814815</v>
       </c>
       <c r="AH16" t="n">
-        <v>820977.5078176701</v>
+        <v>933832.2489934617</v>
       </c>
     </row>
   </sheetData>
@@ -50049,28 +50049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1855.322543051846</v>
+        <v>2025.902199865979</v>
       </c>
       <c r="AB2" t="n">
-        <v>2538.534154457378</v>
+        <v>2771.928766353814</v>
       </c>
       <c r="AC2" t="n">
-        <v>2296.260017611028</v>
+        <v>2507.379775319464</v>
       </c>
       <c r="AD2" t="n">
-        <v>1855322.543051846</v>
+        <v>2025902.199865979</v>
       </c>
       <c r="AE2" t="n">
-        <v>2538534.154457378</v>
+        <v>2771928.766353814</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.817823641690681e-07</v>
+        <v>1.135280126211363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.51388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2296260.017611028</v>
+        <v>2507379.775319464</v>
       </c>
     </row>
     <row r="3">
@@ -50155,28 +50155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1157.664838535796</v>
+        <v>1285.514240291824</v>
       </c>
       <c r="AB3" t="n">
-        <v>1583.968104652831</v>
+        <v>1758.897296452961</v>
       </c>
       <c r="AC3" t="n">
-        <v>1432.796411857962</v>
+        <v>1591.03060710735</v>
       </c>
       <c r="AD3" t="n">
-        <v>1157664.838535796</v>
+        <v>1285514.240291824</v>
       </c>
       <c r="AE3" t="n">
-        <v>1583968.104652832</v>
+        <v>1758897.296452961</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.071681314039491e-06</v>
+        <v>1.556262398876522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.82523148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>1432796.411857962</v>
+        <v>1591030.60710735</v>
       </c>
     </row>
     <row r="4">
@@ -50261,28 +50261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1007.418706726033</v>
+        <v>1118.210232309199</v>
       </c>
       <c r="AB4" t="n">
-        <v>1378.394718719187</v>
+        <v>1529.984571799221</v>
       </c>
       <c r="AC4" t="n">
-        <v>1246.842661353766</v>
+        <v>1383.964991613536</v>
       </c>
       <c r="AD4" t="n">
-        <v>1007418.706726033</v>
+        <v>1118210.232309199</v>
       </c>
       <c r="AE4" t="n">
-        <v>1378394.718719187</v>
+        <v>1529984.571799221</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183402636462395e-06</v>
+        <v>1.718500641684141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.10532407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1246842.661353766</v>
+        <v>1383964.991613536</v>
       </c>
     </row>
     <row r="5">
@@ -50367,28 +50367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>930.7329787255311</v>
+        <v>1041.524414800146</v>
       </c>
       <c r="AB5" t="n">
-        <v>1273.469922533351</v>
+        <v>1425.059653143837</v>
       </c>
       <c r="AC5" t="n">
-        <v>1151.931740453029</v>
+        <v>1289.053959931573</v>
       </c>
       <c r="AD5" t="n">
-        <v>930732.9787255311</v>
+        <v>1041524.414800146</v>
       </c>
       <c r="AE5" t="n">
-        <v>1273469.922533351</v>
+        <v>1425059.653143837</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.243026486030663e-06</v>
+        <v>1.805084548619692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.84953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>1151931.740453029</v>
+        <v>1289053.959931573</v>
       </c>
     </row>
     <row r="6">
@@ -50473,28 +50473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>895.2116657157039</v>
+        <v>997.474208458163</v>
       </c>
       <c r="AB6" t="n">
-        <v>1224.868094983575</v>
+        <v>1364.788217468787</v>
       </c>
       <c r="AC6" t="n">
-        <v>1107.96840311151</v>
+        <v>1234.534745485859</v>
       </c>
       <c r="AD6" t="n">
-        <v>895211.665715704</v>
+        <v>997474.2084581631</v>
       </c>
       <c r="AE6" t="n">
-        <v>1224868.094983575</v>
+        <v>1364788.217468787</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.280284719691049e-06</v>
+        <v>1.859189801118363e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.1261574074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1107968.40311151</v>
+        <v>1234534.745485859</v>
       </c>
     </row>
     <row r="7">
@@ -50579,28 +50579,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>862.5931218215453</v>
+        <v>964.940915910025</v>
       </c>
       <c r="AB7" t="n">
-        <v>1180.237964198992</v>
+        <v>1320.274731336854</v>
       </c>
       <c r="AC7" t="n">
-        <v>1067.597709370226</v>
+        <v>1194.269563995287</v>
       </c>
       <c r="AD7" t="n">
-        <v>862593.1218215453</v>
+        <v>964940.915910025</v>
       </c>
       <c r="AE7" t="n">
-        <v>1180237.964198992</v>
+        <v>1320274.731336854</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305586156302829e-06</v>
+        <v>1.895931763416887e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.66319444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>1067597.709370226</v>
+        <v>1194269.563995287</v>
       </c>
     </row>
     <row r="8">
@@ -50685,28 +50685,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>845.3601001382913</v>
+        <v>947.5373020261787</v>
       </c>
       <c r="AB8" t="n">
-        <v>1156.658983664704</v>
+        <v>1296.462339027719</v>
       </c>
       <c r="AC8" t="n">
-        <v>1046.269073644823</v>
+        <v>1172.729792987233</v>
       </c>
       <c r="AD8" t="n">
-        <v>845360.1001382913</v>
+        <v>947537.3020261787</v>
       </c>
       <c r="AE8" t="n">
-        <v>1156658.983664704</v>
+        <v>1296462.339027719</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323628108992242e-06</v>
+        <v>1.922131728093894e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.33912037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1046269.073644823</v>
+        <v>1172729.792987233</v>
       </c>
     </row>
     <row r="9">
@@ -50791,28 +50791,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>830.1887286320682</v>
+        <v>924.0076293883924</v>
       </c>
       <c r="AB9" t="n">
-        <v>1135.900843856217</v>
+        <v>1264.268002868805</v>
       </c>
       <c r="AC9" t="n">
-        <v>1027.492061565426</v>
+        <v>1143.608039086292</v>
       </c>
       <c r="AD9" t="n">
-        <v>830188.7286320683</v>
+        <v>924007.6293883924</v>
       </c>
       <c r="AE9" t="n">
-        <v>1135900.843856217</v>
+        <v>1264268.002868805</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.338840998094262e-06</v>
+        <v>1.944223414286045e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1027492.061565426</v>
+        <v>1143608.039086292</v>
       </c>
     </row>
     <row r="10">
@@ -50897,28 +50897,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>810.3413262682643</v>
+        <v>912.6037795021725</v>
       </c>
       <c r="AB10" t="n">
-        <v>1108.744752336465</v>
+        <v>1248.664752352129</v>
       </c>
       <c r="AC10" t="n">
-        <v>1002.927709306506</v>
+        <v>1129.493940899628</v>
       </c>
       <c r="AD10" t="n">
-        <v>810341.3262682643</v>
+        <v>912603.7795021725</v>
       </c>
       <c r="AE10" t="n">
-        <v>1108744.752336465</v>
+        <v>1248664.752352129</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.349943738210824e-06</v>
+        <v>1.960346469471895e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.88194444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1002927.709306506</v>
+        <v>1129493.940899628</v>
       </c>
     </row>
     <row r="11">
@@ -51003,28 +51003,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>799.8754224585581</v>
+        <v>902.1378756924663</v>
       </c>
       <c r="AB11" t="n">
-        <v>1094.424841020936</v>
+        <v>1234.3448410366</v>
       </c>
       <c r="AC11" t="n">
-        <v>989.9744702288087</v>
+        <v>1116.540701821931</v>
       </c>
       <c r="AD11" t="n">
-        <v>799875.4224585581</v>
+        <v>902137.8756924663</v>
       </c>
       <c r="AE11" t="n">
-        <v>1094424.841020936</v>
+        <v>1234344.8410366</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359018093113784e-06</v>
+        <v>1.973523966498792e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.73148148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>989974.4702288087</v>
+        <v>1116540.701821931</v>
       </c>
     </row>
     <row r="12">
@@ -51109,28 +51109,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>791.6519847736067</v>
+        <v>893.9144380075149</v>
       </c>
       <c r="AB12" t="n">
-        <v>1083.173170787919</v>
+        <v>1223.093170803583</v>
       </c>
       <c r="AC12" t="n">
-        <v>979.7966436110128</v>
+        <v>1106.362875204135</v>
       </c>
       <c r="AD12" t="n">
-        <v>791651.9847736068</v>
+        <v>893914.4380075149</v>
       </c>
       <c r="AE12" t="n">
-        <v>1083173.170787919</v>
+        <v>1223093.170803583</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.365637034337118e-06</v>
+        <v>1.983135787859587e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.62152777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>979796.6436110127</v>
+        <v>1106362.875204135</v>
       </c>
     </row>
     <row r="13">
@@ -51215,28 +51215,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>783.159568168832</v>
+        <v>885.42202140274</v>
       </c>
       <c r="AB13" t="n">
-        <v>1071.553471730288</v>
+        <v>1211.473471745952</v>
       </c>
       <c r="AC13" t="n">
-        <v>969.2859123230918</v>
+        <v>1095.852143916214</v>
       </c>
       <c r="AD13" t="n">
-        <v>783159.568168832</v>
+        <v>885422.02140274</v>
       </c>
       <c r="AE13" t="n">
-        <v>1071553.471730288</v>
+        <v>1211473.471745952</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.371775568536179e-06</v>
+        <v>1.992049977024841e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.51736111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>969285.9123230918</v>
+        <v>1095852.143916214</v>
       </c>
     </row>
     <row r="14">
@@ -51321,28 +51321,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>776.446329682993</v>
+        <v>878.538190716309</v>
       </c>
       <c r="AB14" t="n">
-        <v>1062.368122666783</v>
+        <v>1202.0547109076</v>
       </c>
       <c r="AC14" t="n">
-        <v>960.9772000824897</v>
+        <v>1087.332296392961</v>
       </c>
       <c r="AD14" t="n">
-        <v>776446.329682993</v>
+        <v>878538.190716309</v>
       </c>
       <c r="AE14" t="n">
-        <v>1062368.122666783</v>
+        <v>1202054.7109076</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.376312745987659e-06</v>
+        <v>1.998638725538289e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.44212962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>960977.2000824898</v>
+        <v>1087332.296392961</v>
       </c>
     </row>
     <row r="15">
@@ -51427,28 +51427,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>769.0533810843017</v>
+        <v>862.7869409860541</v>
       </c>
       <c r="AB15" t="n">
-        <v>1052.252764240181</v>
+        <v>1180.503156130571</v>
       </c>
       <c r="AC15" t="n">
-        <v>951.827237267127</v>
+        <v>1067.837591756055</v>
       </c>
       <c r="AD15" t="n">
-        <v>769053.3810843017</v>
+        <v>862786.9409860541</v>
       </c>
       <c r="AE15" t="n">
-        <v>1052252.764240181</v>
+        <v>1180503.156130571</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.381063437672149e-06</v>
+        <v>2.005537532805312e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.36689814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>951827.237267127</v>
+        <v>1067837.591756054</v>
       </c>
     </row>
     <row r="16">
@@ -51533,28 +51533,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>761.2468013075813</v>
+        <v>854.980361209334</v>
       </c>
       <c r="AB16" t="n">
-        <v>1041.571457387679</v>
+        <v>1169.821849278069</v>
       </c>
       <c r="AC16" t="n">
-        <v>942.1653393493198</v>
+        <v>1058.175693838247</v>
       </c>
       <c r="AD16" t="n">
-        <v>761246.8013075814</v>
+        <v>854980.361209334</v>
       </c>
       <c r="AE16" t="n">
-        <v>1041571.457387679</v>
+        <v>1169821.849278069</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.386241157822662e-06</v>
+        <v>2.013056457579483e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.28587962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>942165.3393493198</v>
+        <v>1058175.693838247</v>
       </c>
     </row>
     <row r="17">
@@ -51639,28 +51639,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>756.6156664118766</v>
+        <v>850.3492263136291</v>
       </c>
       <c r="AB17" t="n">
-        <v>1035.234934312123</v>
+        <v>1163.485326202514</v>
       </c>
       <c r="AC17" t="n">
-        <v>936.4335651427294</v>
+        <v>1052.443919631657</v>
       </c>
       <c r="AD17" t="n">
-        <v>756615.6664118767</v>
+        <v>850349.2263136291</v>
       </c>
       <c r="AE17" t="n">
-        <v>1035234.934312123</v>
+        <v>1163485.326202514</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.388002650245001e-06</v>
+        <v>2.015614442296468e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.25694444444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>936433.5651427294</v>
+        <v>1052443.919631657</v>
       </c>
     </row>
     <row r="18">
@@ -51745,28 +51745,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>749.3388429626331</v>
+        <v>843.0724028643856</v>
       </c>
       <c r="AB18" t="n">
-        <v>1025.278463438075</v>
+        <v>1153.528855328466</v>
       </c>
       <c r="AC18" t="n">
-        <v>927.4273258749057</v>
+        <v>1043.437680363833</v>
       </c>
       <c r="AD18" t="n">
-        <v>749338.8429626331</v>
+        <v>843072.4028643856</v>
       </c>
       <c r="AE18" t="n">
-        <v>1025278.463438075</v>
+        <v>1153528.855328466</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.390404685366372e-06</v>
+        <v>2.019102603274177e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.21643518518519</v>
       </c>
       <c r="AH18" t="n">
-        <v>927427.3258749057</v>
+        <v>1043437.680363833</v>
       </c>
     </row>
     <row r="19">
@@ -51851,28 +51851,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>742.3602011810478</v>
+        <v>836.0937610828001</v>
       </c>
       <c r="AB19" t="n">
-        <v>1015.729977876563</v>
+        <v>1143.980369766954</v>
       </c>
       <c r="AC19" t="n">
-        <v>918.7901343740008</v>
+        <v>1034.800488862928</v>
       </c>
       <c r="AD19" t="n">
-        <v>742360.2011810478</v>
+        <v>836093.7610828001</v>
       </c>
       <c r="AE19" t="n">
-        <v>1015729.977876563</v>
+        <v>1143980.369766954</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.394835105701346e-06</v>
+        <v>2.025536322410838e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22.14699074074074</v>
       </c>
       <c r="AH19" t="n">
-        <v>918790.1343740008</v>
+        <v>1034800.488862928</v>
       </c>
     </row>
     <row r="20">
@@ -51957,28 +51957,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>736.4875214653295</v>
+        <v>830.2210813670821</v>
       </c>
       <c r="AB20" t="n">
-        <v>1007.694718405174</v>
+        <v>1135.945110295564</v>
       </c>
       <c r="AC20" t="n">
-        <v>911.5217487890035</v>
+        <v>1027.532103277931</v>
       </c>
       <c r="AD20" t="n">
-        <v>736487.5214653295</v>
+        <v>830221.0813670821</v>
       </c>
       <c r="AE20" t="n">
-        <v>1007694.718405174</v>
+        <v>1135945.110295564</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.397610790730487e-06</v>
+        <v>2.029567086207301e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>911521.7487890035</v>
+        <v>1027532.103277931</v>
       </c>
     </row>
     <row r="21">
@@ -52063,28 +52063,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>734.0346136092967</v>
+        <v>827.7681735110493</v>
       </c>
       <c r="AB21" t="n">
-        <v>1004.338541661893</v>
+        <v>1132.588933552283</v>
       </c>
       <c r="AC21" t="n">
-        <v>908.4858808436775</v>
+        <v>1024.496235332605</v>
       </c>
       <c r="AD21" t="n">
-        <v>734034.6136092967</v>
+        <v>827768.1735110494</v>
       </c>
       <c r="AE21" t="n">
-        <v>1004338.541661893</v>
+        <v>1132588.933552283</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.396863490914949e-06</v>
+        <v>2.028481880569791e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22.11226851851852</v>
       </c>
       <c r="AH21" t="n">
-        <v>908485.8808436774</v>
+        <v>1024496.235332605</v>
       </c>
     </row>
     <row r="22">
@@ -52169,28 +52169,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>732.4650582371771</v>
+        <v>826.1986181389295</v>
       </c>
       <c r="AB22" t="n">
-        <v>1002.191006757863</v>
+        <v>1130.441398648253</v>
       </c>
       <c r="AC22" t="n">
-        <v>906.5433036568037</v>
+        <v>1022.553658145731</v>
       </c>
       <c r="AD22" t="n">
-        <v>732465.0582371771</v>
+        <v>826198.6181389295</v>
       </c>
       <c r="AE22" t="n">
-        <v>1002191.006757863</v>
+        <v>1130441.398648253</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.399692554502342e-06</v>
+        <v>2.032590159054647e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>22.07175925925926</v>
       </c>
       <c r="AH22" t="n">
-        <v>906543.3036568037</v>
+        <v>1022553.658145731</v>
       </c>
     </row>
     <row r="23">
@@ -52275,28 +52275,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>734.8757785657863</v>
+        <v>828.6093384675387</v>
       </c>
       <c r="AB23" t="n">
-        <v>1005.489460664941</v>
+        <v>1133.739852555331</v>
       </c>
       <c r="AC23" t="n">
-        <v>909.5269577523993</v>
+        <v>1025.537312241326</v>
       </c>
       <c r="AD23" t="n">
-        <v>734875.7785657863</v>
+        <v>828609.3384675387</v>
       </c>
       <c r="AE23" t="n">
-        <v>1005489.460664941</v>
+        <v>1133739.852555331</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.3998526901771e-06</v>
+        <v>2.032822703119828e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>22.06597222222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>909526.9577523993</v>
+        <v>1025537.312241326</v>
       </c>
     </row>
   </sheetData>
@@ -52572,28 +52572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.5704713065084</v>
+        <v>463.8731876036211</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.9768201920375</v>
+        <v>634.6917599199905</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.5418394579418</v>
+        <v>574.1176691487055</v>
       </c>
       <c r="AD2" t="n">
-        <v>378570.4713065084</v>
+        <v>463873.1876036211</v>
       </c>
       <c r="AE2" t="n">
-        <v>517976.8201920376</v>
+        <v>634691.7599199906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.65098945908405e-06</v>
+        <v>2.752101063923119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.03935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>468541.8394579418</v>
+        <v>574117.6691487056</v>
       </c>
     </row>
   </sheetData>
@@ -52869,28 +52869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>935.3513135542202</v>
+        <v>1054.318835990866</v>
       </c>
       <c r="AB2" t="n">
-        <v>1279.788931992516</v>
+        <v>1442.565544667006</v>
       </c>
       <c r="AC2" t="n">
-        <v>1157.647672518197</v>
+        <v>1304.889113737444</v>
       </c>
       <c r="AD2" t="n">
-        <v>935351.3135542201</v>
+        <v>1054318.835990866</v>
       </c>
       <c r="AE2" t="n">
-        <v>1279788.931992516</v>
+        <v>1442565.544667006</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.155829060719027e-06</v>
+        <v>1.759063901086825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1157647.672518197</v>
+        <v>1304889.113737444</v>
       </c>
     </row>
     <row r="3">
@@ -52975,28 +52975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>714.8269502336934</v>
+        <v>817.9946420647282</v>
       </c>
       <c r="AB3" t="n">
-        <v>978.0577692490896</v>
+        <v>1119.216356649651</v>
       </c>
       <c r="AC3" t="n">
-        <v>884.7133084646564</v>
+        <v>1012.399918401029</v>
       </c>
       <c r="AD3" t="n">
-        <v>714826.9502336935</v>
+        <v>817994.6420647282</v>
       </c>
       <c r="AE3" t="n">
-        <v>978057.7692490895</v>
+        <v>1119216.35664965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.370640076835569e-06</v>
+        <v>2.085986208933387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.82060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>884713.3084646564</v>
+        <v>1012399.918401029</v>
       </c>
     </row>
     <row r="4">
@@ -53081,28 +53081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>653.8281723682784</v>
+        <v>748.9680718774766</v>
       </c>
       <c r="AB4" t="n">
-        <v>894.5965502974758</v>
+        <v>1024.771158082098</v>
       </c>
       <c r="AC4" t="n">
-        <v>809.2175111112282</v>
+        <v>926.9684370300956</v>
       </c>
       <c r="AD4" t="n">
-        <v>653828.1723682784</v>
+        <v>748968.0718774766</v>
       </c>
       <c r="AE4" t="n">
-        <v>894596.5502974758</v>
+        <v>1024771.158082098</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.448122539682203e-06</v>
+        <v>2.203907282206996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.49537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>809217.5111112281</v>
+        <v>926968.4370300956</v>
       </c>
     </row>
     <row r="5">
@@ -53187,28 +53187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>617.155730582681</v>
+        <v>712.3808814378999</v>
       </c>
       <c r="AB5" t="n">
-        <v>844.4196975724739</v>
+        <v>974.7109500097456</v>
       </c>
       <c r="AC5" t="n">
-        <v>763.8294667866452</v>
+        <v>881.685904956225</v>
       </c>
       <c r="AD5" t="n">
-        <v>617155.730582681</v>
+        <v>712380.8814378999</v>
       </c>
       <c r="AE5" t="n">
-        <v>844419.6975724739</v>
+        <v>974710.9500097455</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.488157105083233e-06</v>
+        <v>2.264836152388581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.85879629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>763829.4667866452</v>
+        <v>881685.9049562251</v>
       </c>
     </row>
     <row r="6">
@@ -53293,28 +53293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>597.3464447568215</v>
+        <v>692.5715956120404</v>
       </c>
       <c r="AB6" t="n">
-        <v>817.3157587815207</v>
+        <v>947.6070112187925</v>
       </c>
       <c r="AC6" t="n">
-        <v>739.3122898732837</v>
+        <v>857.1687280428636</v>
       </c>
       <c r="AD6" t="n">
-        <v>597346.4447568215</v>
+        <v>692571.5956120404</v>
       </c>
       <c r="AE6" t="n">
-        <v>817315.7587815206</v>
+        <v>947607.0112187925</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.511495904590148e-06</v>
+        <v>2.300355625901193e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.50578703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>739312.2898732837</v>
+        <v>857168.7280428635</v>
       </c>
     </row>
     <row r="7">
@@ -53399,28 +53399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>581.0405820944113</v>
+        <v>668.3232814823654</v>
       </c>
       <c r="AB7" t="n">
-        <v>795.0053581229206</v>
+        <v>914.4293980664515</v>
       </c>
       <c r="AC7" t="n">
-        <v>719.1311625406963</v>
+        <v>827.1575397247095</v>
       </c>
       <c r="AD7" t="n">
-        <v>581040.5820944114</v>
+        <v>668323.2814823653</v>
       </c>
       <c r="AE7" t="n">
-        <v>795005.3581229206</v>
+        <v>914429.3980664515</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.52801530676003e-06</v>
+        <v>2.325496613450422e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.26273148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>719131.1625406963</v>
+        <v>827157.5397247095</v>
       </c>
     </row>
     <row r="8">
@@ -53505,28 +53505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>566.8691650410965</v>
+        <v>654.1518644290506</v>
       </c>
       <c r="AB8" t="n">
-        <v>775.6154001117791</v>
+        <v>895.0394400553101</v>
       </c>
       <c r="AC8" t="n">
-        <v>701.5917549081612</v>
+        <v>809.6181320921745</v>
       </c>
       <c r="AD8" t="n">
-        <v>566869.1650410965</v>
+        <v>654151.8644290506</v>
       </c>
       <c r="AE8" t="n">
-        <v>775615.4001117791</v>
+        <v>895039.4400553101</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.540537131180616e-06</v>
+        <v>2.344553660952151e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>701591.7549081612</v>
+        <v>809618.1320921745</v>
       </c>
     </row>
     <row r="9">
@@ -53611,28 +53611,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>569.2407982399067</v>
+        <v>656.5234976278607</v>
       </c>
       <c r="AB9" t="n">
-        <v>778.8603732834638</v>
+        <v>898.2844132269947</v>
       </c>
       <c r="AC9" t="n">
-        <v>704.5270323946886</v>
+        <v>812.5534095787018</v>
       </c>
       <c r="AD9" t="n">
-        <v>569240.7982399067</v>
+        <v>656523.4976278608</v>
       </c>
       <c r="AE9" t="n">
-        <v>778860.3732834638</v>
+        <v>898284.4132269947</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.539126221386748e-06</v>
+        <v>2.34240638799421e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.10648148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>704527.0323946886</v>
+        <v>812553.4095787018</v>
       </c>
     </row>
   </sheetData>
@@ -53908,28 +53908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1198.181907719609</v>
+        <v>1336.751734265976</v>
       </c>
       <c r="AB2" t="n">
-        <v>1639.405346197063</v>
+        <v>1829.002696147096</v>
       </c>
       <c r="AC2" t="n">
-        <v>1482.942800875869</v>
+        <v>1654.445245848223</v>
       </c>
       <c r="AD2" t="n">
-        <v>1198181.907719609</v>
+        <v>1336751.734265976</v>
       </c>
       <c r="AE2" t="n">
-        <v>1639405.346197063</v>
+        <v>1829002.696147096</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009916558914373e-06</v>
+        <v>1.507715230872513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.43055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1482942.800875869</v>
+        <v>1654445.245848223</v>
       </c>
     </row>
     <row r="3">
@@ -54014,28 +54014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>863.0276502102311</v>
+        <v>969.1032738536161</v>
       </c>
       <c r="AB3" t="n">
-        <v>1180.832505110431</v>
+        <v>1325.969853105547</v>
       </c>
       <c r="AC3" t="n">
-        <v>1068.135508131521</v>
+        <v>1199.42115133553</v>
       </c>
       <c r="AD3" t="n">
-        <v>863027.6502102311</v>
+        <v>969103.2738536161</v>
       </c>
       <c r="AE3" t="n">
-        <v>1180832.505110431</v>
+        <v>1325969.853105547</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.257089434147185e-06</v>
+        <v>1.876722259579583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.05324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1068135.508131521</v>
+        <v>1199421.15133553</v>
       </c>
     </row>
     <row r="4">
@@ -54120,28 +54120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>773.4814676588056</v>
+        <v>871.3908701491594</v>
       </c>
       <c r="AB4" t="n">
-        <v>1058.311467644809</v>
+        <v>1192.275431590097</v>
       </c>
       <c r="AC4" t="n">
-        <v>957.3077065222617</v>
+        <v>1078.486337768215</v>
       </c>
       <c r="AD4" t="n">
-        <v>773481.4676588057</v>
+        <v>871390.8701491593</v>
       </c>
       <c r="AE4" t="n">
-        <v>1058311.467644809</v>
+        <v>1192275.431590097</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346630878758659e-06</v>
+        <v>2.010399639798174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>957307.7065222617</v>
+        <v>1078486.337768215</v>
       </c>
     </row>
     <row r="5">
@@ -54226,28 +54226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>729.6262302283603</v>
+        <v>827.6208840647346</v>
       </c>
       <c r="AB5" t="n">
-        <v>998.3067970359468</v>
+        <v>1132.387405633884</v>
       </c>
       <c r="AC5" t="n">
-        <v>903.0297974592251</v>
+        <v>1024.313940955891</v>
       </c>
       <c r="AD5" t="n">
-        <v>729626.2302283603</v>
+        <v>827620.8840647346</v>
       </c>
       <c r="AE5" t="n">
-        <v>998306.7970359469</v>
+        <v>1132387.405633884</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.392250603383722e-06</v>
+        <v>2.078505814549238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.52430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>903029.7974592251</v>
+        <v>1024313.940955891</v>
       </c>
     </row>
     <row r="6">
@@ -54332,28 +54332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>704.7678670145273</v>
+        <v>794.5963892064216</v>
       </c>
       <c r="AB6" t="n">
-        <v>964.294487813195</v>
+        <v>1087.201834830852</v>
       </c>
       <c r="AC6" t="n">
-        <v>872.2635752921166</v>
+        <v>983.4408176119537</v>
       </c>
       <c r="AD6" t="n">
-        <v>704767.8670145273</v>
+        <v>794596.3892064216</v>
       </c>
       <c r="AE6" t="n">
-        <v>964294.487813195</v>
+        <v>1087201.834830852</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.423154287807151e-06</v>
+        <v>2.124642255509637e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.0150462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>872263.5752921166</v>
+        <v>983440.8176119537</v>
       </c>
     </row>
     <row r="7">
@@ -54438,28 +54438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>680.7362794944796</v>
+        <v>778.6455924762822</v>
       </c>
       <c r="AB7" t="n">
-        <v>931.4134095694494</v>
+        <v>1065.377251045189</v>
       </c>
       <c r="AC7" t="n">
-        <v>842.520621007071</v>
+        <v>963.699141471798</v>
       </c>
       <c r="AD7" t="n">
-        <v>680736.2794944796</v>
+        <v>778645.5924762823</v>
       </c>
       <c r="AE7" t="n">
-        <v>931413.4095694494</v>
+        <v>1065377.251045189</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.440360734812137e-06</v>
+        <v>2.150329944249493e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.74305555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>842520.621007071</v>
+        <v>963699.1414717981</v>
       </c>
     </row>
     <row r="8">
@@ -54544,28 +54544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>666.1334343365976</v>
+        <v>764.0427473184001</v>
       </c>
       <c r="AB8" t="n">
-        <v>911.4331525923743</v>
+        <v>1045.396994068114</v>
       </c>
       <c r="AC8" t="n">
-        <v>824.4472517134212</v>
+        <v>945.6257721781484</v>
       </c>
       <c r="AD8" t="n">
-        <v>666133.4343365976</v>
+        <v>764042.7473184001</v>
       </c>
       <c r="AE8" t="n">
-        <v>911433.1525923744</v>
+        <v>1045396.994068114</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.454906974549905e-06</v>
+        <v>2.172046181111805e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.51157407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>824447.2517134212</v>
+        <v>945625.7721781484</v>
       </c>
     </row>
     <row r="9">
@@ -54650,28 +54650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>652.406163326559</v>
+        <v>742.1493446638815</v>
       </c>
       <c r="AB9" t="n">
-        <v>892.6508947919841</v>
+        <v>1015.441474687443</v>
       </c>
       <c r="AC9" t="n">
-        <v>807.4575462364359</v>
+        <v>918.5291655243342</v>
       </c>
       <c r="AD9" t="n">
-        <v>652406.163326559</v>
+        <v>742149.3446638815</v>
       </c>
       <c r="AE9" t="n">
-        <v>892650.8947919841</v>
+        <v>1015441.474687443</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.46764200933978e-06</v>
+        <v>2.191058450738343e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH9" t="n">
-        <v>807457.5462364359</v>
+        <v>918529.1655243342</v>
       </c>
     </row>
     <row r="10">
@@ -54756,28 +54756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>641.1523170645638</v>
+        <v>730.8954984018864</v>
       </c>
       <c r="AB10" t="n">
-        <v>877.2528858516653</v>
+        <v>1000.043465747125</v>
       </c>
       <c r="AC10" t="n">
-        <v>793.52910165814</v>
+        <v>904.6007209460379</v>
       </c>
       <c r="AD10" t="n">
-        <v>641152.3170645639</v>
+        <v>730895.4984018863</v>
       </c>
       <c r="AE10" t="n">
-        <v>877252.8858516653</v>
+        <v>1000043.465747125</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476188632687651e-06</v>
+        <v>2.203817796132153e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH10" t="n">
-        <v>793529.10165814</v>
+        <v>904600.7209460379</v>
       </c>
     </row>
     <row r="11">
@@ -54862,28 +54862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>630.9648970119106</v>
+        <v>720.708078349233</v>
       </c>
       <c r="AB11" t="n">
-        <v>863.3140082983722</v>
+        <v>986.1045881938317</v>
       </c>
       <c r="AC11" t="n">
-        <v>780.9205310151954</v>
+        <v>891.9921503030937</v>
       </c>
       <c r="AD11" t="n">
-        <v>630964.8970119106</v>
+        <v>720708.078349233</v>
       </c>
       <c r="AE11" t="n">
-        <v>863314.0082983722</v>
+        <v>986104.5881938316</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.482018448613683e-06</v>
+        <v>2.212521190672301e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>780920.5310151954</v>
+        <v>891992.1503030937</v>
       </c>
     </row>
     <row r="12">
@@ -54968,28 +54968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>624.5711171828257</v>
+        <v>714.3142985201482</v>
       </c>
       <c r="AB12" t="n">
-        <v>854.56575666256</v>
+        <v>977.3563365580195</v>
       </c>
       <c r="AC12" t="n">
-        <v>773.0072002372571</v>
+        <v>884.078819525155</v>
       </c>
       <c r="AD12" t="n">
-        <v>624571.1171828257</v>
+        <v>714314.2985201483</v>
       </c>
       <c r="AE12" t="n">
-        <v>854565.75666256</v>
+        <v>977356.3365580195</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.486263460210308e-06</v>
+        <v>2.218858613881147e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.03703703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>773007.2002372571</v>
+        <v>884078.819525155</v>
       </c>
     </row>
     <row r="13">
@@ -55074,28 +55074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>626.5495822165964</v>
+        <v>716.2927635539188</v>
       </c>
       <c r="AB13" t="n">
-        <v>857.2727798054821</v>
+        <v>980.0633597009416</v>
       </c>
       <c r="AC13" t="n">
-        <v>775.4558688907493</v>
+        <v>886.5274881786476</v>
       </c>
       <c r="AD13" t="n">
-        <v>626549.5822165963</v>
+        <v>716292.7635539188</v>
       </c>
       <c r="AE13" t="n">
-        <v>857272.779805482</v>
+        <v>980063.3597009416</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.486206860055686e-06</v>
+        <v>2.218774114905029e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.03703703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>775455.8688907493</v>
+        <v>886527.4881786476</v>
       </c>
     </row>
   </sheetData>
